--- a/scripts/Report_Templates/Cliff_Sales_Report_Template.xlsx
+++ b/scripts/Report_Templates/Cliff_Sales_Report_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\Documents\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30635412-6860-4D67-A739-165A4E5EBDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E89A034-581C-40A8-921C-70C0A7CC8A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MON" sheetId="1" r:id="rId1"/>
@@ -2913,6 +2913,21 @@
     <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="20" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2922,6 +2937,68 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2931,41 +3008,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3025,80 +3074,31 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3266,7 +3266,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3322,9 +3322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>425450</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3380,9 +3380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3438,7 +3438,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -3554,7 +3554,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -4013,7 +4013,7 @@
   <dimension ref="A1:W120"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M4"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4042,49 +4042,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="457"/>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
-      <c r="K1" s="457"/>
-      <c r="L1" s="457"/>
-      <c r="M1" s="457"/>
-      <c r="N1" s="457"/>
-      <c r="O1" s="457"/>
-      <c r="P1" s="457"/>
-      <c r="Q1" s="457"/>
-      <c r="R1" s="457"/>
-      <c r="S1" s="457"/>
+      <c r="A1" s="472"/>
+      <c r="B1" s="472"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="472"/>
+      <c r="E1" s="472"/>
+      <c r="F1" s="472"/>
+      <c r="G1" s="472"/>
+      <c r="H1" s="472"/>
+      <c r="I1" s="472"/>
+      <c r="J1" s="472"/>
+      <c r="K1" s="472"/>
+      <c r="L1" s="472"/>
+      <c r="M1" s="472"/>
+      <c r="N1" s="472"/>
+      <c r="O1" s="472"/>
+      <c r="P1" s="472"/>
+      <c r="Q1" s="472"/>
+      <c r="R1" s="472"/>
+      <c r="S1" s="472"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="458" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="458"/>
-      <c r="O2" s="459"/>
-      <c r="P2" s="460" t="s">
+      <c r="A2" s="473" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="473"/>
+      <c r="F2" s="473"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="473"/>
+      <c r="I2" s="473"/>
+      <c r="J2" s="473"/>
+      <c r="K2" s="473"/>
+      <c r="L2" s="473"/>
+      <c r="M2" s="473"/>
+      <c r="N2" s="473"/>
+      <c r="O2" s="474"/>
+      <c r="P2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="461"/>
-      <c r="R2" s="462"/>
+      <c r="Q2" s="476"/>
+      <c r="R2" s="477"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4095,14 +4095,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="463" t="s">
+      <c r="H3" s="478" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="464"/>
-      <c r="K3" s="464"/>
-      <c r="L3" s="464"/>
-      <c r="M3" s="464"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
+      <c r="M3" s="479"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -4126,12 +4126,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="463"/>
+      <c r="H4" s="478"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="465"/>
-      <c r="K4" s="465"/>
-      <c r="L4" s="465"/>
-      <c r="M4" s="465"/>
+      <c r="J4" s="480"/>
+      <c r="K4" s="480"/>
+      <c r="L4" s="480"/>
+      <c r="M4" s="480"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -4207,29 +4207,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="466" t="s">
+      <c r="C7" s="481" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="469"/>
-      <c r="E7" s="467"/>
-      <c r="F7" s="466" t="s">
+      <c r="D7" s="484"/>
+      <c r="E7" s="482"/>
+      <c r="F7" s="481" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="467"/>
+      <c r="G7" s="482"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="466" t="s">
+      <c r="I7" s="481" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="467"/>
+      <c r="J7" s="482"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="466" t="s">
+      <c r="L7" s="481" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="468"/>
+      <c r="M7" s="483"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -4249,10 +4249,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="474" t="s">
+      <c r="D8" s="487" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="475"/>
+      <c r="E8" s="488"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -4262,15 +4262,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="494"/>
-      <c r="J8" s="495"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="453"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="484" t="s">
+      <c r="L8" s="437" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="486" t="s">
+      <c r="M8" s="439" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -4293,27 +4293,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="476">
+      <c r="C9" s="454">
         <v>40100</v>
       </c>
-      <c r="D9" s="478"/>
-      <c r="E9" s="477"/>
-      <c r="F9" s="476">
+      <c r="D9" s="456"/>
+      <c r="E9" s="455"/>
+      <c r="F9" s="454">
         <v>40200</v>
       </c>
-      <c r="G9" s="477"/>
+      <c r="G9" s="455"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="476">
+      <c r="I9" s="454">
         <v>40900</v>
       </c>
-      <c r="J9" s="477"/>
+      <c r="J9" s="455"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="485"/>
-      <c r="M9" s="487"/>
+      <c r="L9" s="438"/>
+      <c r="M9" s="440"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -4333,13 +4333,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="472"/>
-      <c r="E10" s="473"/>
+      <c r="D10" s="457"/>
+      <c r="E10" s="458"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="472"/>
-      <c r="J10" s="473"/>
+      <c r="I10" s="457"/>
+      <c r="J10" s="458"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -4362,13 +4362,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="470"/>
-      <c r="E11" s="471"/>
+      <c r="D11" s="485"/>
+      <c r="E11" s="486"/>
       <c r="F11" s="192"/>
       <c r="G11" s="311"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="479"/>
-      <c r="J11" s="480"/>
+      <c r="I11" s="459"/>
+      <c r="J11" s="460"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -4400,13 +4400,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="481"/>
-      <c r="E12" s="482"/>
+      <c r="D12" s="467"/>
+      <c r="E12" s="468"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="481"/>
-      <c r="J12" s="482"/>
+      <c r="I12" s="467"/>
+      <c r="J12" s="468"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -4435,11 +4435,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="488">
+      <c r="D13" s="446">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="489">
+      <c r="E13" s="447">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4455,11 +4455,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="488">
+      <c r="I13" s="446">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="489">
+      <c r="J13" s="447">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -4492,13 +4492,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="490"/>
-      <c r="E14" s="491"/>
+      <c r="D14" s="448"/>
+      <c r="E14" s="449"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="490"/>
-      <c r="J14" s="491"/>
+      <c r="I14" s="448"/>
+      <c r="J14" s="449"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4528,11 +4528,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="492">
+      <c r="D15" s="450">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="493"/>
+      <c r="E15" s="451"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -4545,11 +4545,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="492">
+      <c r="I15" s="450">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="493"/>
+      <c r="J15" s="451"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -4617,22 +4617,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="445">
+      <c r="C17" s="444">
         <v>40200</v>
       </c>
-      <c r="D17" s="446"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="445">
+      <c r="D17" s="492"/>
+      <c r="E17" s="445"/>
+      <c r="F17" s="444">
         <v>40300</v>
       </c>
-      <c r="G17" s="447"/>
+      <c r="G17" s="445"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="445">
+      <c r="I17" s="444">
         <v>40600</v>
       </c>
-      <c r="J17" s="447"/>
+      <c r="J17" s="445"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -4717,23 +4717,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="436" t="s">
+      <c r="A20" s="441" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="437"/>
-      <c r="C20" s="438"/>
+      <c r="B20" s="442"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="436" t="s">
+      <c r="E20" s="441" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="438"/>
-      <c r="J20" s="436" t="s">
+      <c r="F20" s="442"/>
+      <c r="G20" s="442"/>
+      <c r="H20" s="443"/>
+      <c r="J20" s="441" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="437"/>
-      <c r="L20" s="438"/>
+      <c r="K20" s="442"/>
+      <c r="L20" s="443"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -4753,9 +4753,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="439"/>
-      <c r="F21" s="440"/>
-      <c r="G21" s="441"/>
+      <c r="E21" s="464"/>
+      <c r="F21" s="465"/>
+      <c r="G21" s="466"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -4789,9 +4789,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="439"/>
-      <c r="F22" s="440"/>
-      <c r="G22" s="441"/>
+      <c r="E22" s="464"/>
+      <c r="F22" s="465"/>
+      <c r="G22" s="466"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -4822,9 +4822,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="439"/>
-      <c r="F23" s="440"/>
-      <c r="G23" s="441"/>
+      <c r="E23" s="464"/>
+      <c r="F23" s="465"/>
+      <c r="G23" s="466"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -4863,9 +4863,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="442"/>
-      <c r="F24" s="443"/>
-      <c r="G24" s="444"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="462"/>
+      <c r="G24" s="463"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -4896,9 +4896,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="442"/>
-      <c r="F25" s="443"/>
-      <c r="G25" s="444"/>
+      <c r="E25" s="461"/>
+      <c r="F25" s="462"/>
+      <c r="G25" s="463"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -5011,12 +5011,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="436" t="s">
+      <c r="E28" s="441" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="437"/>
-      <c r="G28" s="437"/>
-      <c r="H28" s="438"/>
+      <c r="F28" s="442"/>
+      <c r="G28" s="442"/>
+      <c r="H28" s="443"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -5049,9 +5049,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="442"/>
-      <c r="F29" s="443"/>
-      <c r="G29" s="444"/>
+      <c r="E29" s="461"/>
+      <c r="F29" s="462"/>
+      <c r="G29" s="463"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -5072,9 +5072,9 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="442"/>
-      <c r="F30" s="443"/>
-      <c r="G30" s="444"/>
+      <c r="E30" s="461"/>
+      <c r="F30" s="462"/>
+      <c r="G30" s="463"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -5099,15 +5099,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="448" t="s">
+      <c r="A31" s="493" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="449"/>
-      <c r="C31" s="450"/>
+      <c r="B31" s="494"/>
+      <c r="C31" s="495"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="442"/>
-      <c r="F31" s="443"/>
-      <c r="G31" s="444"/>
+      <c r="E31" s="461"/>
+      <c r="F31" s="462"/>
+      <c r="G31" s="463"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -5143,9 +5143,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="442"/>
-      <c r="F32" s="443"/>
-      <c r="G32" s="444"/>
+      <c r="E32" s="461"/>
+      <c r="F32" s="462"/>
+      <c r="G32" s="463"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -5168,9 +5168,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="442"/>
-      <c r="F33" s="443"/>
-      <c r="G33" s="444"/>
+      <c r="E33" s="461"/>
+      <c r="F33" s="462"/>
+      <c r="G33" s="463"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -5179,14 +5179,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="452" t="s">
+      <c r="N33" s="490" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="452"/>
-      <c r="P33" s="452"/>
-      <c r="Q33" s="452"/>
-      <c r="R33" s="452"/>
-      <c r="S33" s="452"/>
+      <c r="O33" s="490"/>
+      <c r="P33" s="490"/>
+      <c r="Q33" s="490"/>
+      <c r="R33" s="490"/>
+      <c r="S33" s="490"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -5214,11 +5214,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="451"/>
-      <c r="O34" s="451"/>
-      <c r="P34" s="451"/>
-      <c r="Q34" s="451"/>
-      <c r="R34" s="451"/>
+      <c r="N34" s="489"/>
+      <c r="O34" s="489"/>
+      <c r="P34" s="489"/>
+      <c r="Q34" s="489"/>
+      <c r="R34" s="489"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -5245,11 +5245,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="451"/>
-      <c r="O35" s="451"/>
-      <c r="P35" s="451"/>
-      <c r="Q35" s="451"/>
-      <c r="R35" s="451"/>
+      <c r="N35" s="489"/>
+      <c r="O35" s="489"/>
+      <c r="P35" s="489"/>
+      <c r="Q35" s="489"/>
+      <c r="R35" s="489"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -5257,12 +5257,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="436" t="s">
+      <c r="E36" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="437"/>
-      <c r="G36" s="437"/>
-      <c r="H36" s="438"/>
+      <c r="F36" s="442"/>
+      <c r="G36" s="442"/>
+      <c r="H36" s="443"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -5276,22 +5276,22 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="451"/>
-      <c r="O36" s="451"/>
-      <c r="P36" s="451"/>
-      <c r="Q36" s="451"/>
-      <c r="R36" s="451"/>
+      <c r="N36" s="489"/>
+      <c r="O36" s="489"/>
+      <c r="P36" s="489"/>
+      <c r="Q36" s="489"/>
+      <c r="R36" s="489"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="439" t="s">
+      <c r="E37" s="464" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="440"/>
-      <c r="G37" s="441"/>
+      <c r="F37" s="465"/>
+      <c r="G37" s="466"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -5306,23 +5306,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="451"/>
-      <c r="O37" s="451"/>
-      <c r="P37" s="451"/>
-      <c r="Q37" s="451"/>
-      <c r="R37" s="451"/>
+      <c r="N37" s="489"/>
+      <c r="O37" s="489"/>
+      <c r="P37" s="489"/>
+      <c r="Q37" s="489"/>
+      <c r="R37" s="489"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="453" t="s">
+      <c r="A38" s="491" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="453"/>
+      <c r="B38" s="491"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="454"/>
-      <c r="F38" s="455"/>
-      <c r="G38" s="456"/>
+      <c r="E38" s="469"/>
+      <c r="F38" s="470"/>
+      <c r="G38" s="471"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -5334,11 +5334,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="451"/>
-      <c r="O38" s="451"/>
-      <c r="P38" s="451"/>
-      <c r="Q38" s="451"/>
-      <c r="R38" s="451"/>
+      <c r="N38" s="489"/>
+      <c r="O38" s="489"/>
+      <c r="P38" s="489"/>
+      <c r="Q38" s="489"/>
+      <c r="R38" s="489"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5346,14 +5346,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="454"/>
-      <c r="F39" s="455"/>
-      <c r="G39" s="456"/>
+      <c r="E39" s="469"/>
+      <c r="F39" s="470"/>
+      <c r="G39" s="471"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -5386,9 +5386,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="454"/>
-      <c r="F40" s="455"/>
-      <c r="G40" s="456"/>
+      <c r="E40" s="469"/>
+      <c r="F40" s="470"/>
+      <c r="G40" s="471"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -5419,9 +5419,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="454"/>
-      <c r="F41" s="455"/>
-      <c r="G41" s="456"/>
+      <c r="E41" s="469"/>
+      <c r="F41" s="470"/>
+      <c r="G41" s="471"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -5436,14 +5436,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="452" t="s">
+      <c r="N41" s="490" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="452"/>
-      <c r="P41" s="452"/>
-      <c r="Q41" s="452"/>
-      <c r="R41" s="452"/>
-      <c r="S41" s="452"/>
+      <c r="O41" s="490"/>
+      <c r="P41" s="490"/>
+      <c r="Q41" s="490"/>
+      <c r="R41" s="490"/>
+      <c r="S41" s="490"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -5469,11 +5469,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="451"/>
-      <c r="O42" s="451"/>
-      <c r="P42" s="451"/>
-      <c r="Q42" s="451"/>
-      <c r="R42" s="451"/>
+      <c r="N42" s="489"/>
+      <c r="O42" s="489"/>
+      <c r="P42" s="489"/>
+      <c r="Q42" s="489"/>
+      <c r="R42" s="489"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -5494,11 +5494,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="451"/>
-      <c r="O43" s="451"/>
-      <c r="P43" s="451"/>
-      <c r="Q43" s="451"/>
-      <c r="R43" s="451"/>
+      <c r="N43" s="489"/>
+      <c r="O43" s="489"/>
+      <c r="P43" s="489"/>
+      <c r="Q43" s="489"/>
+      <c r="R43" s="489"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -5522,11 +5522,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="451"/>
-      <c r="O44" s="451"/>
-      <c r="P44" s="451"/>
-      <c r="Q44" s="451"/>
-      <c r="R44" s="451"/>
+      <c r="N44" s="489"/>
+      <c r="O44" s="489"/>
+      <c r="P44" s="489"/>
+      <c r="Q44" s="489"/>
+      <c r="R44" s="489"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -5553,11 +5553,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="451"/>
-      <c r="O45" s="451"/>
-      <c r="P45" s="451"/>
-      <c r="Q45" s="451"/>
-      <c r="R45" s="451"/>
+      <c r="N45" s="489"/>
+      <c r="O45" s="489"/>
+      <c r="P45" s="489"/>
+      <c r="Q45" s="489"/>
+      <c r="R45" s="489"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -5577,11 +5577,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="451"/>
-      <c r="O46" s="451"/>
-      <c r="P46" s="451"/>
-      <c r="Q46" s="451"/>
-      <c r="R46" s="451"/>
+      <c r="N46" s="489"/>
+      <c r="O46" s="489"/>
+      <c r="P46" s="489"/>
+      <c r="Q46" s="489"/>
+      <c r="R46" s="489"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -5698,20 +5698,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="483">
+      <c r="E51" s="436">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="483"/>
-      <c r="G51" s="483"/>
-      <c r="H51" s="483"/>
-      <c r="J51" s="483">
+      <c r="F51" s="436"/>
+      <c r="G51" s="436"/>
+      <c r="H51" s="436"/>
+      <c r="J51" s="436">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="483"/>
-      <c r="L51" s="483"/>
-      <c r="M51" s="483"/>
+      <c r="K51" s="436"/>
+      <c r="L51" s="436"/>
+      <c r="M51" s="436"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6857,6 +6857,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="L8:L9"/>
@@ -6873,57 +6924,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.70866141732283472" top="0.74803149606299213" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="60" fitToWidth="2" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -6943,7 +6943,7 @@
   <dimension ref="A1:U112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M4"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6991,28 +6991,28 @@
       <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="458" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="458"/>
-      <c r="O2" s="459"/>
-      <c r="P2" s="460" t="s">
+      <c r="A2" s="473" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="473"/>
+      <c r="F2" s="473"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="473"/>
+      <c r="I2" s="473"/>
+      <c r="J2" s="473"/>
+      <c r="K2" s="473"/>
+      <c r="L2" s="473"/>
+      <c r="M2" s="473"/>
+      <c r="N2" s="473"/>
+      <c r="O2" s="474"/>
+      <c r="P2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="461"/>
-      <c r="R2" s="462"/>
+      <c r="Q2" s="476"/>
+      <c r="R2" s="477"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7023,14 +7023,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="463" t="s">
+      <c r="H3" s="478" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="464"/>
-      <c r="K3" s="464"/>
-      <c r="L3" s="464"/>
-      <c r="M3" s="464"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
+      <c r="M3" s="479"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -7054,12 +7054,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="463"/>
+      <c r="H4" s="478"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="465"/>
-      <c r="K4" s="465"/>
-      <c r="L4" s="465"/>
-      <c r="M4" s="465"/>
+      <c r="J4" s="480"/>
+      <c r="K4" s="480"/>
+      <c r="L4" s="480"/>
+      <c r="M4" s="480"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -7135,29 +7135,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="466" t="s">
+      <c r="C7" s="481" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="469"/>
-      <c r="E7" s="467"/>
-      <c r="F7" s="466" t="s">
+      <c r="D7" s="484"/>
+      <c r="E7" s="482"/>
+      <c r="F7" s="481" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="467"/>
+      <c r="G7" s="482"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="466" t="s">
+      <c r="I7" s="481" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="467"/>
+      <c r="J7" s="482"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="466" t="s">
+      <c r="L7" s="481" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="468"/>
+      <c r="M7" s="483"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -7177,10 +7177,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="474" t="s">
+      <c r="D8" s="487" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="475"/>
+      <c r="E8" s="488"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -7190,15 +7190,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="494"/>
-      <c r="J8" s="495"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="453"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="484" t="s">
+      <c r="L8" s="437" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="486" t="s">
+      <c r="M8" s="439" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -7221,27 +7221,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="476">
+      <c r="C9" s="454">
         <v>40100</v>
       </c>
-      <c r="D9" s="478"/>
-      <c r="E9" s="477"/>
-      <c r="F9" s="476">
+      <c r="D9" s="456"/>
+      <c r="E9" s="455"/>
+      <c r="F9" s="454">
         <v>40200</v>
       </c>
-      <c r="G9" s="477"/>
+      <c r="G9" s="455"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="476">
+      <c r="I9" s="454">
         <v>40900</v>
       </c>
-      <c r="J9" s="477"/>
+      <c r="J9" s="455"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="485"/>
-      <c r="M9" s="487"/>
+      <c r="L9" s="438"/>
+      <c r="M9" s="440"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -7261,13 +7261,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="472"/>
-      <c r="E10" s="473"/>
+      <c r="D10" s="457"/>
+      <c r="E10" s="458"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="472"/>
-      <c r="J10" s="473"/>
+      <c r="I10" s="457"/>
+      <c r="J10" s="458"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -7290,13 +7290,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="470"/>
-      <c r="E11" s="471"/>
+      <c r="D11" s="485"/>
+      <c r="E11" s="486"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="479"/>
-      <c r="J11" s="480"/>
+      <c r="I11" s="459"/>
+      <c r="J11" s="460"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -7328,13 +7328,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="481"/>
-      <c r="E12" s="482"/>
+      <c r="D12" s="467"/>
+      <c r="E12" s="468"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="481"/>
-      <c r="J12" s="482"/>
+      <c r="I12" s="467"/>
+      <c r="J12" s="468"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -7363,11 +7363,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="488">
+      <c r="D13" s="446">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="489">
+      <c r="E13" s="447">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7383,11 +7383,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="488">
+      <c r="I13" s="446">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="489">
+      <c r="J13" s="447">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -7420,13 +7420,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="490"/>
-      <c r="E14" s="491"/>
+      <c r="D14" s="448"/>
+      <c r="E14" s="449"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="490"/>
-      <c r="J14" s="491"/>
+      <c r="I14" s="448"/>
+      <c r="J14" s="449"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -7456,11 +7456,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="492">
+      <c r="D15" s="450">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="493"/>
+      <c r="E15" s="451"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -7473,11 +7473,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="492">
+      <c r="I15" s="450">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="493"/>
+      <c r="J15" s="451"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -7545,22 +7545,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="445">
+      <c r="C17" s="444">
         <v>40200</v>
       </c>
-      <c r="D17" s="446"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="445">
+      <c r="D17" s="492"/>
+      <c r="E17" s="445"/>
+      <c r="F17" s="444">
         <v>40300</v>
       </c>
-      <c r="G17" s="447"/>
+      <c r="G17" s="445"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="445">
+      <c r="I17" s="444">
         <v>40600</v>
       </c>
-      <c r="J17" s="447"/>
+      <c r="J17" s="445"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -7645,23 +7645,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="436" t="s">
+      <c r="A20" s="441" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="437"/>
-      <c r="C20" s="438"/>
+      <c r="B20" s="442"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="436" t="s">
+      <c r="E20" s="441" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="438"/>
-      <c r="J20" s="436" t="s">
+      <c r="F20" s="442"/>
+      <c r="G20" s="442"/>
+      <c r="H20" s="443"/>
+      <c r="J20" s="441" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="437"/>
-      <c r="L20" s="438"/>
+      <c r="K20" s="442"/>
+      <c r="L20" s="443"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -7681,9 +7681,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="439"/>
-      <c r="F21" s="440"/>
-      <c r="G21" s="441"/>
+      <c r="E21" s="464"/>
+      <c r="F21" s="465"/>
+      <c r="G21" s="466"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -7714,9 +7714,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="439"/>
-      <c r="F22" s="440"/>
-      <c r="G22" s="441"/>
+      <c r="E22" s="464"/>
+      <c r="F22" s="465"/>
+      <c r="G22" s="466"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -7747,9 +7747,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="439"/>
-      <c r="F23" s="440"/>
-      <c r="G23" s="441"/>
+      <c r="E23" s="464"/>
+      <c r="F23" s="465"/>
+      <c r="G23" s="466"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -7788,9 +7788,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="442"/>
-      <c r="F24" s="443"/>
-      <c r="G24" s="444"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="462"/>
+      <c r="G24" s="463"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -7821,9 +7821,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="442"/>
-      <c r="F25" s="443"/>
-      <c r="G25" s="444"/>
+      <c r="E25" s="461"/>
+      <c r="F25" s="462"/>
+      <c r="G25" s="463"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -7936,12 +7936,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="436" t="s">
+      <c r="E28" s="441" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="437"/>
-      <c r="G28" s="437"/>
-      <c r="H28" s="438"/>
+      <c r="F28" s="442"/>
+      <c r="G28" s="442"/>
+      <c r="H28" s="443"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -7974,9 +7974,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="442"/>
-      <c r="F29" s="443"/>
-      <c r="G29" s="444"/>
+      <c r="E29" s="461"/>
+      <c r="F29" s="462"/>
+      <c r="G29" s="463"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -7997,9 +7997,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="442"/>
-      <c r="F30" s="443"/>
-      <c r="G30" s="444"/>
+      <c r="E30" s="461"/>
+      <c r="F30" s="462"/>
+      <c r="G30" s="463"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -8024,15 +8024,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="448" t="s">
+      <c r="A31" s="493" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="449"/>
-      <c r="C31" s="450"/>
+      <c r="B31" s="494"/>
+      <c r="C31" s="495"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="442"/>
-      <c r="F31" s="443"/>
-      <c r="G31" s="444"/>
+      <c r="E31" s="461"/>
+      <c r="F31" s="462"/>
+      <c r="G31" s="463"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -8067,9 +8067,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="442"/>
-      <c r="F32" s="443"/>
-      <c r="G32" s="444"/>
+      <c r="E32" s="461"/>
+      <c r="F32" s="462"/>
+      <c r="G32" s="463"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -8092,9 +8092,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="442"/>
-      <c r="F33" s="443"/>
-      <c r="G33" s="444"/>
+      <c r="E33" s="461"/>
+      <c r="F33" s="462"/>
+      <c r="G33" s="463"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -8103,14 +8103,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="452" t="s">
+      <c r="N33" s="490" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="452"/>
-      <c r="P33" s="452"/>
-      <c r="Q33" s="452"/>
-      <c r="R33" s="452"/>
-      <c r="S33" s="452"/>
+      <c r="O33" s="490"/>
+      <c r="P33" s="490"/>
+      <c r="Q33" s="490"/>
+      <c r="R33" s="490"/>
+      <c r="S33" s="490"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -8138,11 +8138,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="451"/>
-      <c r="O34" s="451"/>
-      <c r="P34" s="451"/>
-      <c r="Q34" s="451"/>
-      <c r="R34" s="451"/>
+      <c r="N34" s="489"/>
+      <c r="O34" s="489"/>
+      <c r="P34" s="489"/>
+      <c r="Q34" s="489"/>
+      <c r="R34" s="489"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -8169,11 +8169,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="451"/>
-      <c r="O35" s="451"/>
-      <c r="P35" s="451"/>
-      <c r="Q35" s="451"/>
-      <c r="R35" s="451"/>
+      <c r="N35" s="489"/>
+      <c r="O35" s="489"/>
+      <c r="P35" s="489"/>
+      <c r="Q35" s="489"/>
+      <c r="R35" s="489"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -8181,12 +8181,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="436" t="s">
+      <c r="E36" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="437"/>
-      <c r="G36" s="437"/>
-      <c r="H36" s="438"/>
+      <c r="F36" s="442"/>
+      <c r="G36" s="442"/>
+      <c r="H36" s="443"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -8200,22 +8200,22 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="451"/>
-      <c r="O36" s="451"/>
-      <c r="P36" s="451"/>
-      <c r="Q36" s="451"/>
-      <c r="R36" s="451"/>
+      <c r="N36" s="489"/>
+      <c r="O36" s="489"/>
+      <c r="P36" s="489"/>
+      <c r="Q36" s="489"/>
+      <c r="R36" s="489"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="439" t="s">
+      <c r="E37" s="464" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="440"/>
-      <c r="G37" s="441"/>
+      <c r="F37" s="465"/>
+      <c r="G37" s="466"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -8230,23 +8230,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="451"/>
-      <c r="O37" s="451"/>
-      <c r="P37" s="451"/>
-      <c r="Q37" s="451"/>
-      <c r="R37" s="451"/>
+      <c r="N37" s="489"/>
+      <c r="O37" s="489"/>
+      <c r="P37" s="489"/>
+      <c r="Q37" s="489"/>
+      <c r="R37" s="489"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="453" t="s">
+      <c r="A38" s="491" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="453"/>
+      <c r="B38" s="491"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="454"/>
-      <c r="F38" s="455"/>
-      <c r="G38" s="456"/>
+      <c r="E38" s="469"/>
+      <c r="F38" s="470"/>
+      <c r="G38" s="471"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -8258,11 +8258,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="451"/>
-      <c r="O38" s="451"/>
-      <c r="P38" s="451"/>
-      <c r="Q38" s="451"/>
-      <c r="R38" s="451"/>
+      <c r="N38" s="489"/>
+      <c r="O38" s="489"/>
+      <c r="P38" s="489"/>
+      <c r="Q38" s="489"/>
+      <c r="R38" s="489"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8270,14 +8270,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="454"/>
-      <c r="F39" s="455"/>
-      <c r="G39" s="456"/>
+      <c r="E39" s="469"/>
+      <c r="F39" s="470"/>
+      <c r="G39" s="471"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -8310,9 +8310,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="454"/>
-      <c r="F40" s="455"/>
-      <c r="G40" s="456"/>
+      <c r="E40" s="469"/>
+      <c r="F40" s="470"/>
+      <c r="G40" s="471"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -8343,9 +8343,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="454"/>
-      <c r="F41" s="455"/>
-      <c r="G41" s="456"/>
+      <c r="E41" s="469"/>
+      <c r="F41" s="470"/>
+      <c r="G41" s="471"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -8360,14 +8360,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="452" t="s">
+      <c r="N41" s="490" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="452"/>
-      <c r="P41" s="452"/>
-      <c r="Q41" s="452"/>
-      <c r="R41" s="452"/>
-      <c r="S41" s="452"/>
+      <c r="O41" s="490"/>
+      <c r="P41" s="490"/>
+      <c r="Q41" s="490"/>
+      <c r="R41" s="490"/>
+      <c r="S41" s="490"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -8393,11 +8393,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="451"/>
-      <c r="O42" s="451"/>
-      <c r="P42" s="451"/>
-      <c r="Q42" s="451"/>
-      <c r="R42" s="451"/>
+      <c r="N42" s="489"/>
+      <c r="O42" s="489"/>
+      <c r="P42" s="489"/>
+      <c r="Q42" s="489"/>
+      <c r="R42" s="489"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -8418,11 +8418,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="451"/>
-      <c r="O43" s="451"/>
-      <c r="P43" s="451"/>
-      <c r="Q43" s="451"/>
-      <c r="R43" s="451"/>
+      <c r="N43" s="489"/>
+      <c r="O43" s="489"/>
+      <c r="P43" s="489"/>
+      <c r="Q43" s="489"/>
+      <c r="R43" s="489"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -8446,11 +8446,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="451"/>
-      <c r="O44" s="451"/>
-      <c r="P44" s="451"/>
-      <c r="Q44" s="451"/>
-      <c r="R44" s="451"/>
+      <c r="N44" s="489"/>
+      <c r="O44" s="489"/>
+      <c r="P44" s="489"/>
+      <c r="Q44" s="489"/>
+      <c r="R44" s="489"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -8477,11 +8477,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="451"/>
-      <c r="O45" s="451"/>
-      <c r="P45" s="451"/>
-      <c r="Q45" s="451"/>
-      <c r="R45" s="451"/>
+      <c r="N45" s="489"/>
+      <c r="O45" s="489"/>
+      <c r="P45" s="489"/>
+      <c r="Q45" s="489"/>
+      <c r="R45" s="489"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -8501,11 +8501,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="451"/>
-      <c r="O46" s="451"/>
-      <c r="P46" s="451"/>
-      <c r="Q46" s="451"/>
-      <c r="R46" s="451"/>
+      <c r="N46" s="489"/>
+      <c r="O46" s="489"/>
+      <c r="P46" s="489"/>
+      <c r="Q46" s="489"/>
+      <c r="R46" s="489"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -8620,20 +8620,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="483">
+      <c r="E51" s="436">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="483"/>
-      <c r="G51" s="483"/>
-      <c r="H51" s="483"/>
-      <c r="J51" s="483">
+      <c r="F51" s="436"/>
+      <c r="G51" s="436"/>
+      <c r="H51" s="436"/>
+      <c r="J51" s="436">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="483"/>
-      <c r="L51" s="483"/>
-      <c r="M51" s="483"/>
+      <c r="K51" s="436"/>
+      <c r="L51" s="436"/>
+      <c r="M51" s="436"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9772,51 +9772,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:M4"/>
@@ -9833,11 +9793,51 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9857,8 +9857,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -9888,49 +9888,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="457"/>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
-      <c r="K1" s="457"/>
-      <c r="L1" s="457"/>
-      <c r="M1" s="457"/>
-      <c r="N1" s="457"/>
-      <c r="O1" s="457"/>
-      <c r="P1" s="457"/>
-      <c r="Q1" s="457"/>
-      <c r="R1" s="457"/>
-      <c r="S1" s="457"/>
+      <c r="A1" s="472"/>
+      <c r="B1" s="472"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="472"/>
+      <c r="E1" s="472"/>
+      <c r="F1" s="472"/>
+      <c r="G1" s="472"/>
+      <c r="H1" s="472"/>
+      <c r="I1" s="472"/>
+      <c r="J1" s="472"/>
+      <c r="K1" s="472"/>
+      <c r="L1" s="472"/>
+      <c r="M1" s="472"/>
+      <c r="N1" s="472"/>
+      <c r="O1" s="472"/>
+      <c r="P1" s="472"/>
+      <c r="Q1" s="472"/>
+      <c r="R1" s="472"/>
+      <c r="S1" s="472"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="458" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="458"/>
-      <c r="O2" s="459"/>
-      <c r="P2" s="460" t="s">
+      <c r="A2" s="473" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="473"/>
+      <c r="F2" s="473"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="473"/>
+      <c r="I2" s="473"/>
+      <c r="J2" s="473"/>
+      <c r="K2" s="473"/>
+      <c r="L2" s="473"/>
+      <c r="M2" s="473"/>
+      <c r="N2" s="473"/>
+      <c r="O2" s="474"/>
+      <c r="P2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="461"/>
-      <c r="R2" s="462"/>
+      <c r="Q2" s="476"/>
+      <c r="R2" s="477"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9941,14 +9941,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="463" t="s">
+      <c r="H3" s="478" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="464"/>
-      <c r="K3" s="464"/>
-      <c r="L3" s="464"/>
-      <c r="M3" s="464"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
+      <c r="M3" s="479"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -9972,12 +9972,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="463"/>
+      <c r="H4" s="478"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="465"/>
-      <c r="K4" s="465"/>
-      <c r="L4" s="465"/>
-      <c r="M4" s="465"/>
+      <c r="J4" s="480"/>
+      <c r="K4" s="480"/>
+      <c r="L4" s="480"/>
+      <c r="M4" s="480"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -10053,29 +10053,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="466" t="s">
+      <c r="C7" s="481" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="469"/>
-      <c r="E7" s="467"/>
-      <c r="F7" s="466" t="s">
+      <c r="D7" s="484"/>
+      <c r="E7" s="482"/>
+      <c r="F7" s="481" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="467"/>
+      <c r="G7" s="482"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="466" t="s">
+      <c r="I7" s="481" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="467"/>
+      <c r="J7" s="482"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="466" t="s">
+      <c r="L7" s="481" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="468"/>
+      <c r="M7" s="483"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -10095,10 +10095,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="474" t="s">
+      <c r="D8" s="487" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="475"/>
+      <c r="E8" s="488"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -10108,15 +10108,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="494"/>
-      <c r="J8" s="495"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="453"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="484" t="s">
+      <c r="L8" s="437" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="486" t="s">
+      <c r="M8" s="439" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -10139,27 +10139,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="476">
+      <c r="C9" s="454">
         <v>40100</v>
       </c>
-      <c r="D9" s="478"/>
-      <c r="E9" s="477"/>
-      <c r="F9" s="476">
+      <c r="D9" s="456"/>
+      <c r="E9" s="455"/>
+      <c r="F9" s="454">
         <v>40200</v>
       </c>
-      <c r="G9" s="477"/>
+      <c r="G9" s="455"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="476">
+      <c r="I9" s="454">
         <v>40900</v>
       </c>
-      <c r="J9" s="477"/>
+      <c r="J9" s="455"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="485"/>
-      <c r="M9" s="487"/>
+      <c r="L9" s="438"/>
+      <c r="M9" s="440"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -10179,13 +10179,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="472"/>
-      <c r="E10" s="473"/>
+      <c r="D10" s="457"/>
+      <c r="E10" s="458"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="472"/>
-      <c r="J10" s="473"/>
+      <c r="I10" s="457"/>
+      <c r="J10" s="458"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -10208,13 +10208,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="470"/>
-      <c r="E11" s="471"/>
+      <c r="D11" s="485"/>
+      <c r="E11" s="486"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="479"/>
-      <c r="J11" s="480"/>
+      <c r="I11" s="459"/>
+      <c r="J11" s="460"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -10246,13 +10246,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="481"/>
-      <c r="E12" s="482"/>
+      <c r="D12" s="467"/>
+      <c r="E12" s="468"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="481"/>
-      <c r="J12" s="482"/>
+      <c r="I12" s="467"/>
+      <c r="J12" s="468"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -10281,11 +10281,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="488">
+      <c r="D13" s="446">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="489">
+      <c r="E13" s="447">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10301,11 +10301,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="488">
+      <c r="I13" s="446">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="489">
+      <c r="J13" s="447">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -10338,13 +10338,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="490"/>
-      <c r="E14" s="491"/>
+      <c r="D14" s="448"/>
+      <c r="E14" s="449"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="490"/>
-      <c r="J14" s="491"/>
+      <c r="I14" s="448"/>
+      <c r="J14" s="449"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -10374,11 +10374,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="492">
+      <c r="D15" s="450">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="493"/>
+      <c r="E15" s="451"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -10391,11 +10391,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="492">
+      <c r="I15" s="450">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="493"/>
+      <c r="J15" s="451"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -10463,22 +10463,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="445">
+      <c r="C17" s="444">
         <v>40200</v>
       </c>
-      <c r="D17" s="446"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="445">
+      <c r="D17" s="492"/>
+      <c r="E17" s="445"/>
+      <c r="F17" s="444">
         <v>40300</v>
       </c>
-      <c r="G17" s="447"/>
+      <c r="G17" s="445"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="445">
+      <c r="I17" s="444">
         <v>40600</v>
       </c>
-      <c r="J17" s="447"/>
+      <c r="J17" s="445"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -10563,23 +10563,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="436" t="s">
+      <c r="A20" s="441" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="437"/>
-      <c r="C20" s="438"/>
+      <c r="B20" s="442"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="436" t="s">
+      <c r="E20" s="441" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="438"/>
-      <c r="J20" s="436" t="s">
+      <c r="F20" s="442"/>
+      <c r="G20" s="442"/>
+      <c r="H20" s="443"/>
+      <c r="J20" s="441" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="437"/>
-      <c r="L20" s="438"/>
+      <c r="K20" s="442"/>
+      <c r="L20" s="443"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -10599,9 +10599,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="439"/>
-      <c r="F21" s="440"/>
-      <c r="G21" s="441"/>
+      <c r="E21" s="464"/>
+      <c r="F21" s="465"/>
+      <c r="G21" s="466"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -10632,9 +10632,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="439"/>
-      <c r="F22" s="440"/>
-      <c r="G22" s="441"/>
+      <c r="E22" s="464"/>
+      <c r="F22" s="465"/>
+      <c r="G22" s="466"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -10665,9 +10665,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="439"/>
-      <c r="F23" s="440"/>
-      <c r="G23" s="441"/>
+      <c r="E23" s="464"/>
+      <c r="F23" s="465"/>
+      <c r="G23" s="466"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -10706,9 +10706,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="439"/>
-      <c r="F24" s="440"/>
-      <c r="G24" s="441"/>
+      <c r="E24" s="464"/>
+      <c r="F24" s="465"/>
+      <c r="G24" s="466"/>
       <c r="H24" s="55"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -10739,9 +10739,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="442"/>
-      <c r="F25" s="443"/>
-      <c r="G25" s="444"/>
+      <c r="E25" s="461"/>
+      <c r="F25" s="462"/>
+      <c r="G25" s="463"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -10854,12 +10854,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="436" t="s">
+      <c r="E28" s="441" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="437"/>
-      <c r="G28" s="437"/>
-      <c r="H28" s="438"/>
+      <c r="F28" s="442"/>
+      <c r="G28" s="442"/>
+      <c r="H28" s="443"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -10892,9 +10892,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="442"/>
-      <c r="F29" s="443"/>
-      <c r="G29" s="444"/>
+      <c r="E29" s="461"/>
+      <c r="F29" s="462"/>
+      <c r="G29" s="463"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -10915,9 +10915,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="442"/>
-      <c r="F30" s="443"/>
-      <c r="G30" s="444"/>
+      <c r="E30" s="461"/>
+      <c r="F30" s="462"/>
+      <c r="G30" s="463"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -10942,15 +10942,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="448" t="s">
+      <c r="A31" s="493" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="449"/>
-      <c r="C31" s="450"/>
+      <c r="B31" s="494"/>
+      <c r="C31" s="495"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="442"/>
-      <c r="F31" s="443"/>
-      <c r="G31" s="444"/>
+      <c r="E31" s="461"/>
+      <c r="F31" s="462"/>
+      <c r="G31" s="463"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -10985,9 +10985,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="442"/>
-      <c r="F32" s="443"/>
-      <c r="G32" s="444"/>
+      <c r="E32" s="461"/>
+      <c r="F32" s="462"/>
+      <c r="G32" s="463"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -11010,9 +11010,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="442"/>
-      <c r="F33" s="443"/>
-      <c r="G33" s="444"/>
+      <c r="E33" s="461"/>
+      <c r="F33" s="462"/>
+      <c r="G33" s="463"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -11021,14 +11021,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="452" t="s">
+      <c r="N33" s="490" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="452"/>
-      <c r="P33" s="452"/>
-      <c r="Q33" s="452"/>
-      <c r="R33" s="452"/>
-      <c r="S33" s="452"/>
+      <c r="O33" s="490"/>
+      <c r="P33" s="490"/>
+      <c r="Q33" s="490"/>
+      <c r="R33" s="490"/>
+      <c r="S33" s="490"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -11056,11 +11056,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="451"/>
-      <c r="O34" s="451"/>
-      <c r="P34" s="451"/>
-      <c r="Q34" s="451"/>
-      <c r="R34" s="451"/>
+      <c r="N34" s="489"/>
+      <c r="O34" s="489"/>
+      <c r="P34" s="489"/>
+      <c r="Q34" s="489"/>
+      <c r="R34" s="489"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -11087,11 +11087,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="451"/>
-      <c r="O35" s="451"/>
-      <c r="P35" s="451"/>
-      <c r="Q35" s="451"/>
-      <c r="R35" s="451"/>
+      <c r="N35" s="489"/>
+      <c r="O35" s="489"/>
+      <c r="P35" s="489"/>
+      <c r="Q35" s="489"/>
+      <c r="R35" s="489"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -11099,12 +11099,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="436" t="s">
+      <c r="E36" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="437"/>
-      <c r="G36" s="437"/>
-      <c r="H36" s="438"/>
+      <c r="F36" s="442"/>
+      <c r="G36" s="442"/>
+      <c r="H36" s="443"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -11118,20 +11118,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="451"/>
-      <c r="O36" s="451"/>
-      <c r="P36" s="451"/>
-      <c r="Q36" s="451"/>
-      <c r="R36" s="451"/>
+      <c r="N36" s="489"/>
+      <c r="O36" s="489"/>
+      <c r="P36" s="489"/>
+      <c r="Q36" s="489"/>
+      <c r="R36" s="489"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="439"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="441"/>
+      <c r="E37" s="464"/>
+      <c r="F37" s="465"/>
+      <c r="G37" s="466"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -11146,23 +11146,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="451"/>
-      <c r="O37" s="451"/>
-      <c r="P37" s="451"/>
-      <c r="Q37" s="451"/>
-      <c r="R37" s="451"/>
+      <c r="N37" s="489"/>
+      <c r="O37" s="489"/>
+      <c r="P37" s="489"/>
+      <c r="Q37" s="489"/>
+      <c r="R37" s="489"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="453" t="s">
+      <c r="A38" s="491" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="453"/>
+      <c r="B38" s="491"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="454"/>
-      <c r="F38" s="455"/>
-      <c r="G38" s="456"/>
+      <c r="E38" s="469"/>
+      <c r="F38" s="470"/>
+      <c r="G38" s="471"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -11174,11 +11174,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="451"/>
-      <c r="O38" s="451"/>
-      <c r="P38" s="451"/>
-      <c r="Q38" s="451"/>
-      <c r="R38" s="451"/>
+      <c r="N38" s="489"/>
+      <c r="O38" s="489"/>
+      <c r="P38" s="489"/>
+      <c r="Q38" s="489"/>
+      <c r="R38" s="489"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11186,14 +11186,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="454"/>
-      <c r="F39" s="455"/>
-      <c r="G39" s="456"/>
+      <c r="E39" s="469"/>
+      <c r="F39" s="470"/>
+      <c r="G39" s="471"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -11226,9 +11226,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="454"/>
-      <c r="F40" s="455"/>
-      <c r="G40" s="456"/>
+      <c r="E40" s="469"/>
+      <c r="F40" s="470"/>
+      <c r="G40" s="471"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -11259,9 +11259,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="454"/>
-      <c r="F41" s="455"/>
-      <c r="G41" s="456"/>
+      <c r="E41" s="469"/>
+      <c r="F41" s="470"/>
+      <c r="G41" s="471"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -11276,14 +11276,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="452" t="s">
+      <c r="N41" s="490" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="452"/>
-      <c r="P41" s="452"/>
-      <c r="Q41" s="452"/>
-      <c r="R41" s="452"/>
-      <c r="S41" s="452"/>
+      <c r="O41" s="490"/>
+      <c r="P41" s="490"/>
+      <c r="Q41" s="490"/>
+      <c r="R41" s="490"/>
+      <c r="S41" s="490"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -11309,11 +11309,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="451"/>
-      <c r="O42" s="451"/>
-      <c r="P42" s="451"/>
-      <c r="Q42" s="451"/>
-      <c r="R42" s="451"/>
+      <c r="N42" s="489"/>
+      <c r="O42" s="489"/>
+      <c r="P42" s="489"/>
+      <c r="Q42" s="489"/>
+      <c r="R42" s="489"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -11334,11 +11334,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="451"/>
-      <c r="O43" s="451"/>
-      <c r="P43" s="451"/>
-      <c r="Q43" s="451"/>
-      <c r="R43" s="451"/>
+      <c r="N43" s="489"/>
+      <c r="O43" s="489"/>
+      <c r="P43" s="489"/>
+      <c r="Q43" s="489"/>
+      <c r="R43" s="489"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -11362,11 +11362,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="451"/>
-      <c r="O44" s="451"/>
-      <c r="P44" s="451"/>
-      <c r="Q44" s="451"/>
-      <c r="R44" s="451"/>
+      <c r="N44" s="489"/>
+      <c r="O44" s="489"/>
+      <c r="P44" s="489"/>
+      <c r="Q44" s="489"/>
+      <c r="R44" s="489"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -11393,11 +11393,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="451"/>
-      <c r="O45" s="451"/>
-      <c r="P45" s="451"/>
-      <c r="Q45" s="451"/>
-      <c r="R45" s="451"/>
+      <c r="N45" s="489"/>
+      <c r="O45" s="489"/>
+      <c r="P45" s="489"/>
+      <c r="Q45" s="489"/>
+      <c r="R45" s="489"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -11417,11 +11417,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="451"/>
-      <c r="O46" s="451"/>
-      <c r="P46" s="451"/>
-      <c r="Q46" s="451"/>
-      <c r="R46" s="451"/>
+      <c r="N46" s="489"/>
+      <c r="O46" s="489"/>
+      <c r="P46" s="489"/>
+      <c r="Q46" s="489"/>
+      <c r="R46" s="489"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -11536,20 +11536,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="483">
+      <c r="E51" s="436">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="483"/>
-      <c r="G51" s="483"/>
-      <c r="H51" s="483"/>
-      <c r="J51" s="483">
+      <c r="F51" s="436"/>
+      <c r="G51" s="436"/>
+      <c r="H51" s="436"/>
+      <c r="J51" s="436">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="483"/>
-      <c r="L51" s="483"/>
-      <c r="M51" s="483"/>
+      <c r="K51" s="436"/>
+      <c r="L51" s="436"/>
+      <c r="M51" s="436"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12698,6 +12698,60 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N37:R37"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="A38:B38"/>
@@ -12711,60 +12765,6 @@
     <mergeCell ref="N42:R42"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -12784,7 +12784,7 @@
   <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M4"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -12813,49 +12813,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="457"/>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
-      <c r="K1" s="457"/>
-      <c r="L1" s="457"/>
-      <c r="M1" s="457"/>
-      <c r="N1" s="457"/>
-      <c r="O1" s="457"/>
-      <c r="P1" s="457"/>
-      <c r="Q1" s="457"/>
-      <c r="R1" s="457"/>
-      <c r="S1" s="457"/>
+      <c r="A1" s="472"/>
+      <c r="B1" s="472"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="472"/>
+      <c r="E1" s="472"/>
+      <c r="F1" s="472"/>
+      <c r="G1" s="472"/>
+      <c r="H1" s="472"/>
+      <c r="I1" s="472"/>
+      <c r="J1" s="472"/>
+      <c r="K1" s="472"/>
+      <c r="L1" s="472"/>
+      <c r="M1" s="472"/>
+      <c r="N1" s="472"/>
+      <c r="O1" s="472"/>
+      <c r="P1" s="472"/>
+      <c r="Q1" s="472"/>
+      <c r="R1" s="472"/>
+      <c r="S1" s="472"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="458" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="458"/>
-      <c r="O2" s="459"/>
-      <c r="P2" s="460" t="s">
+      <c r="A2" s="473" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="473"/>
+      <c r="F2" s="473"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="473"/>
+      <c r="I2" s="473"/>
+      <c r="J2" s="473"/>
+      <c r="K2" s="473"/>
+      <c r="L2" s="473"/>
+      <c r="M2" s="473"/>
+      <c r="N2" s="473"/>
+      <c r="O2" s="474"/>
+      <c r="P2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="461"/>
-      <c r="R2" s="462"/>
+      <c r="Q2" s="476"/>
+      <c r="R2" s="477"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12866,14 +12866,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="463" t="s">
+      <c r="H3" s="478" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="464"/>
-      <c r="K3" s="464"/>
-      <c r="L3" s="464"/>
-      <c r="M3" s="464"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
+      <c r="M3" s="479"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -12897,12 +12897,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="463"/>
+      <c r="H4" s="478"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="465"/>
-      <c r="K4" s="465"/>
-      <c r="L4" s="465"/>
-      <c r="M4" s="465"/>
+      <c r="J4" s="480"/>
+      <c r="K4" s="480"/>
+      <c r="L4" s="480"/>
+      <c r="M4" s="480"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -12978,29 +12978,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="466" t="s">
+      <c r="C7" s="481" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="469"/>
-      <c r="E7" s="467"/>
-      <c r="F7" s="466" t="s">
+      <c r="D7" s="484"/>
+      <c r="E7" s="482"/>
+      <c r="F7" s="481" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="467"/>
+      <c r="G7" s="482"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="466" t="s">
+      <c r="I7" s="481" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="467"/>
+      <c r="J7" s="482"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="466" t="s">
+      <c r="L7" s="481" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="468"/>
+      <c r="M7" s="483"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -13020,10 +13020,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="474" t="s">
+      <c r="D8" s="487" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="475"/>
+      <c r="E8" s="488"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -13033,15 +13033,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="494"/>
-      <c r="J8" s="495"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="453"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="484" t="s">
+      <c r="L8" s="437" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="486" t="s">
+      <c r="M8" s="439" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -13064,27 +13064,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="476">
+      <c r="C9" s="454">
         <v>40100</v>
       </c>
-      <c r="D9" s="478"/>
-      <c r="E9" s="477"/>
-      <c r="F9" s="476">
+      <c r="D9" s="456"/>
+      <c r="E9" s="455"/>
+      <c r="F9" s="454">
         <v>40200</v>
       </c>
-      <c r="G9" s="477"/>
+      <c r="G9" s="455"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="476">
+      <c r="I9" s="454">
         <v>40900</v>
       </c>
-      <c r="J9" s="477"/>
+      <c r="J9" s="455"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="485"/>
-      <c r="M9" s="487"/>
+      <c r="L9" s="438"/>
+      <c r="M9" s="440"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -13104,13 +13104,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="472"/>
-      <c r="E10" s="473"/>
+      <c r="D10" s="457"/>
+      <c r="E10" s="458"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="472"/>
-      <c r="J10" s="473"/>
+      <c r="I10" s="457"/>
+      <c r="J10" s="458"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -13133,13 +13133,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="470"/>
-      <c r="E11" s="471"/>
+      <c r="D11" s="485"/>
+      <c r="E11" s="486"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="479"/>
-      <c r="J11" s="480"/>
+      <c r="I11" s="459"/>
+      <c r="J11" s="460"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -13171,13 +13171,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="481"/>
-      <c r="E12" s="482"/>
+      <c r="D12" s="467"/>
+      <c r="E12" s="468"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="481"/>
-      <c r="J12" s="482"/>
+      <c r="I12" s="467"/>
+      <c r="J12" s="468"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -13206,11 +13206,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="488">
+      <c r="D13" s="446">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="489">
+      <c r="E13" s="447">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13226,11 +13226,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="488">
+      <c r="I13" s="446">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="489">
+      <c r="J13" s="447">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -13263,13 +13263,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="490"/>
-      <c r="E14" s="491"/>
+      <c r="D14" s="448"/>
+      <c r="E14" s="449"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="490"/>
-      <c r="J14" s="491"/>
+      <c r="I14" s="448"/>
+      <c r="J14" s="449"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -13299,11 +13299,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="492">
+      <c r="D15" s="450">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="493"/>
+      <c r="E15" s="451"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -13316,11 +13316,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="492">
+      <c r="I15" s="450">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="493"/>
+      <c r="J15" s="451"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -13388,22 +13388,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="445">
+      <c r="C17" s="444">
         <v>40200</v>
       </c>
-      <c r="D17" s="446"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="445">
+      <c r="D17" s="492"/>
+      <c r="E17" s="445"/>
+      <c r="F17" s="444">
         <v>40300</v>
       </c>
-      <c r="G17" s="447"/>
+      <c r="G17" s="445"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="445">
+      <c r="I17" s="444">
         <v>40600</v>
       </c>
-      <c r="J17" s="447"/>
+      <c r="J17" s="445"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -13488,23 +13488,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="436" t="s">
+      <c r="A20" s="441" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="437"/>
-      <c r="C20" s="438"/>
+      <c r="B20" s="442"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="436" t="s">
+      <c r="E20" s="441" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="438"/>
-      <c r="J20" s="436" t="s">
+      <c r="F20" s="442"/>
+      <c r="G20" s="442"/>
+      <c r="H20" s="443"/>
+      <c r="J20" s="441" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="437"/>
-      <c r="L20" s="438"/>
+      <c r="K20" s="442"/>
+      <c r="L20" s="443"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -13524,9 +13524,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="439"/>
-      <c r="F21" s="440"/>
-      <c r="G21" s="441"/>
+      <c r="E21" s="464"/>
+      <c r="F21" s="465"/>
+      <c r="G21" s="466"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -13557,9 +13557,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="439"/>
-      <c r="F22" s="440"/>
-      <c r="G22" s="441"/>
+      <c r="E22" s="464"/>
+      <c r="F22" s="465"/>
+      <c r="G22" s="466"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -13590,9 +13590,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="439"/>
-      <c r="F23" s="440"/>
-      <c r="G23" s="441"/>
+      <c r="E23" s="464"/>
+      <c r="F23" s="465"/>
+      <c r="G23" s="466"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -13631,9 +13631,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="442"/>
-      <c r="F24" s="443"/>
-      <c r="G24" s="444"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="462"/>
+      <c r="G24" s="463"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -13664,9 +13664,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="442"/>
-      <c r="F25" s="443"/>
-      <c r="G25" s="444"/>
+      <c r="E25" s="461"/>
+      <c r="F25" s="462"/>
+      <c r="G25" s="463"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -13780,12 +13780,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="436" t="s">
+      <c r="E28" s="441" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="437"/>
-      <c r="G28" s="437"/>
-      <c r="H28" s="438"/>
+      <c r="F28" s="442"/>
+      <c r="G28" s="442"/>
+      <c r="H28" s="443"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -13818,9 +13818,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="442"/>
-      <c r="F29" s="443"/>
-      <c r="G29" s="444"/>
+      <c r="E29" s="461"/>
+      <c r="F29" s="462"/>
+      <c r="G29" s="463"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -13841,9 +13841,9 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="442"/>
-      <c r="F30" s="443"/>
-      <c r="G30" s="444"/>
+      <c r="E30" s="461"/>
+      <c r="F30" s="462"/>
+      <c r="G30" s="463"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -13868,15 +13868,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="448" t="s">
+      <c r="A31" s="493" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="449"/>
-      <c r="C31" s="450"/>
+      <c r="B31" s="494"/>
+      <c r="C31" s="495"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="442"/>
-      <c r="F31" s="443"/>
-      <c r="G31" s="444"/>
+      <c r="E31" s="461"/>
+      <c r="F31" s="462"/>
+      <c r="G31" s="463"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -13911,9 +13911,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="442"/>
-      <c r="F32" s="443"/>
-      <c r="G32" s="444"/>
+      <c r="E32" s="461"/>
+      <c r="F32" s="462"/>
+      <c r="G32" s="463"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -13936,9 +13936,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="442"/>
-      <c r="F33" s="443"/>
-      <c r="G33" s="444"/>
+      <c r="E33" s="461"/>
+      <c r="F33" s="462"/>
+      <c r="G33" s="463"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -13947,14 +13947,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="452" t="s">
+      <c r="N33" s="490" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="452"/>
-      <c r="P33" s="452"/>
-      <c r="Q33" s="452"/>
-      <c r="R33" s="452"/>
-      <c r="S33" s="452"/>
+      <c r="O33" s="490"/>
+      <c r="P33" s="490"/>
+      <c r="Q33" s="490"/>
+      <c r="R33" s="490"/>
+      <c r="S33" s="490"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -13982,11 +13982,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="451"/>
-      <c r="O34" s="451"/>
-      <c r="P34" s="451"/>
-      <c r="Q34" s="451"/>
-      <c r="R34" s="451"/>
+      <c r="N34" s="489"/>
+      <c r="O34" s="489"/>
+      <c r="P34" s="489"/>
+      <c r="Q34" s="489"/>
+      <c r="R34" s="489"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -14013,11 +14013,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="451"/>
-      <c r="O35" s="451"/>
-      <c r="P35" s="451"/>
-      <c r="Q35" s="451"/>
-      <c r="R35" s="451"/>
+      <c r="N35" s="489"/>
+      <c r="O35" s="489"/>
+      <c r="P35" s="489"/>
+      <c r="Q35" s="489"/>
+      <c r="R35" s="489"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -14025,12 +14025,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="436" t="s">
+      <c r="E36" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="437"/>
-      <c r="G36" s="437"/>
-      <c r="H36" s="438"/>
+      <c r="F36" s="442"/>
+      <c r="G36" s="442"/>
+      <c r="H36" s="443"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -14044,20 +14044,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="451"/>
-      <c r="O36" s="451"/>
-      <c r="P36" s="451"/>
-      <c r="Q36" s="451"/>
-      <c r="R36" s="451"/>
+      <c r="N36" s="489"/>
+      <c r="O36" s="489"/>
+      <c r="P36" s="489"/>
+      <c r="Q36" s="489"/>
+      <c r="R36" s="489"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="439"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="441"/>
+      <c r="E37" s="464"/>
+      <c r="F37" s="465"/>
+      <c r="G37" s="466"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -14072,23 +14072,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="451"/>
-      <c r="O37" s="451"/>
-      <c r="P37" s="451"/>
-      <c r="Q37" s="451"/>
-      <c r="R37" s="451"/>
+      <c r="N37" s="489"/>
+      <c r="O37" s="489"/>
+      <c r="P37" s="489"/>
+      <c r="Q37" s="489"/>
+      <c r="R37" s="489"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="453" t="s">
+      <c r="A38" s="491" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="453"/>
+      <c r="B38" s="491"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="454"/>
-      <c r="F38" s="455"/>
-      <c r="G38" s="456"/>
+      <c r="E38" s="469"/>
+      <c r="F38" s="470"/>
+      <c r="G38" s="471"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -14100,11 +14100,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="451"/>
-      <c r="O38" s="451"/>
-      <c r="P38" s="451"/>
-      <c r="Q38" s="451"/>
-      <c r="R38" s="451"/>
+      <c r="N38" s="489"/>
+      <c r="O38" s="489"/>
+      <c r="P38" s="489"/>
+      <c r="Q38" s="489"/>
+      <c r="R38" s="489"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14112,14 +14112,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="454"/>
-      <c r="F39" s="455"/>
-      <c r="G39" s="456"/>
+      <c r="E39" s="469"/>
+      <c r="F39" s="470"/>
+      <c r="G39" s="471"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -14152,9 +14152,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="454"/>
-      <c r="F40" s="455"/>
-      <c r="G40" s="456"/>
+      <c r="E40" s="469"/>
+      <c r="F40" s="470"/>
+      <c r="G40" s="471"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -14185,9 +14185,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="454"/>
-      <c r="F41" s="455"/>
-      <c r="G41" s="456"/>
+      <c r="E41" s="469"/>
+      <c r="F41" s="470"/>
+      <c r="G41" s="471"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -14202,14 +14202,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="452" t="s">
+      <c r="N41" s="490" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="452"/>
-      <c r="P41" s="452"/>
-      <c r="Q41" s="452"/>
-      <c r="R41" s="452"/>
-      <c r="S41" s="452"/>
+      <c r="O41" s="490"/>
+      <c r="P41" s="490"/>
+      <c r="Q41" s="490"/>
+      <c r="R41" s="490"/>
+      <c r="S41" s="490"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -14235,11 +14235,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="451"/>
-      <c r="O42" s="451"/>
-      <c r="P42" s="451"/>
-      <c r="Q42" s="451"/>
-      <c r="R42" s="451"/>
+      <c r="N42" s="489"/>
+      <c r="O42" s="489"/>
+      <c r="P42" s="489"/>
+      <c r="Q42" s="489"/>
+      <c r="R42" s="489"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -14260,11 +14260,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="451"/>
-      <c r="O43" s="451"/>
-      <c r="P43" s="451"/>
-      <c r="Q43" s="451"/>
-      <c r="R43" s="451"/>
+      <c r="N43" s="489"/>
+      <c r="O43" s="489"/>
+      <c r="P43" s="489"/>
+      <c r="Q43" s="489"/>
+      <c r="R43" s="489"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -14288,11 +14288,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="451"/>
-      <c r="O44" s="451"/>
-      <c r="P44" s="451"/>
-      <c r="Q44" s="451"/>
-      <c r="R44" s="451"/>
+      <c r="N44" s="489"/>
+      <c r="O44" s="489"/>
+      <c r="P44" s="489"/>
+      <c r="Q44" s="489"/>
+      <c r="R44" s="489"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -14319,11 +14319,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="451"/>
-      <c r="O45" s="451"/>
-      <c r="P45" s="451"/>
-      <c r="Q45" s="451"/>
-      <c r="R45" s="451"/>
+      <c r="N45" s="489"/>
+      <c r="O45" s="489"/>
+      <c r="P45" s="489"/>
+      <c r="Q45" s="489"/>
+      <c r="R45" s="489"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -14343,11 +14343,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="451"/>
-      <c r="O46" s="451"/>
-      <c r="P46" s="451"/>
-      <c r="Q46" s="451"/>
-      <c r="R46" s="451"/>
+      <c r="N46" s="489"/>
+      <c r="O46" s="489"/>
+      <c r="P46" s="489"/>
+      <c r="Q46" s="489"/>
+      <c r="R46" s="489"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -14462,20 +14462,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="483">
+      <c r="E51" s="436">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="483"/>
-      <c r="G51" s="483"/>
-      <c r="H51" s="483"/>
-      <c r="J51" s="483">
+      <c r="F51" s="436"/>
+      <c r="G51" s="436"/>
+      <c r="H51" s="436"/>
+      <c r="J51" s="436">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="483"/>
-      <c r="L51" s="483"/>
-      <c r="M51" s="483"/>
+      <c r="K51" s="436"/>
+      <c r="L51" s="436"/>
+      <c r="M51" s="436"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -15613,57 +15613,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -15680,6 +15629,57 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -15699,7 +15699,7 @@
   <dimension ref="A1:W112"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M4"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -15728,49 +15728,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="457"/>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
-      <c r="K1" s="457"/>
-      <c r="L1" s="457"/>
-      <c r="M1" s="457"/>
-      <c r="N1" s="457"/>
-      <c r="O1" s="457"/>
-      <c r="P1" s="457"/>
-      <c r="Q1" s="457"/>
-      <c r="R1" s="457"/>
-      <c r="S1" s="457"/>
+      <c r="A1" s="472"/>
+      <c r="B1" s="472"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="472"/>
+      <c r="E1" s="472"/>
+      <c r="F1" s="472"/>
+      <c r="G1" s="472"/>
+      <c r="H1" s="472"/>
+      <c r="I1" s="472"/>
+      <c r="J1" s="472"/>
+      <c r="K1" s="472"/>
+      <c r="L1" s="472"/>
+      <c r="M1" s="472"/>
+      <c r="N1" s="472"/>
+      <c r="O1" s="472"/>
+      <c r="P1" s="472"/>
+      <c r="Q1" s="472"/>
+      <c r="R1" s="472"/>
+      <c r="S1" s="472"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="458" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="458"/>
-      <c r="O2" s="459"/>
-      <c r="P2" s="460" t="s">
+      <c r="A2" s="473" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="473"/>
+      <c r="F2" s="473"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="473"/>
+      <c r="I2" s="473"/>
+      <c r="J2" s="473"/>
+      <c r="K2" s="473"/>
+      <c r="L2" s="473"/>
+      <c r="M2" s="473"/>
+      <c r="N2" s="473"/>
+      <c r="O2" s="474"/>
+      <c r="P2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="461"/>
-      <c r="R2" s="462"/>
+      <c r="Q2" s="476"/>
+      <c r="R2" s="477"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15781,14 +15781,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="463" t="s">
+      <c r="H3" s="478" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="464"/>
-      <c r="K3" s="464"/>
-      <c r="L3" s="464"/>
-      <c r="M3" s="464"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
+      <c r="M3" s="479"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -15812,12 +15812,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="463"/>
+      <c r="H4" s="478"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="465"/>
-      <c r="K4" s="465"/>
-      <c r="L4" s="465"/>
-      <c r="M4" s="465"/>
+      <c r="J4" s="480"/>
+      <c r="K4" s="480"/>
+      <c r="L4" s="480"/>
+      <c r="M4" s="480"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -15893,29 +15893,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="466" t="s">
+      <c r="C7" s="481" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="469"/>
-      <c r="E7" s="467"/>
-      <c r="F7" s="466" t="s">
+      <c r="D7" s="484"/>
+      <c r="E7" s="482"/>
+      <c r="F7" s="481" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="467"/>
+      <c r="G7" s="482"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="466" t="s">
+      <c r="I7" s="481" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="467"/>
+      <c r="J7" s="482"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="466" t="s">
+      <c r="L7" s="481" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="468"/>
+      <c r="M7" s="483"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -15935,10 +15935,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="474" t="s">
+      <c r="D8" s="487" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="475"/>
+      <c r="E8" s="488"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -15948,15 +15948,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="494"/>
-      <c r="J8" s="495"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="453"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="484" t="s">
+      <c r="L8" s="437" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="486" t="s">
+      <c r="M8" s="439" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -15979,27 +15979,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="476">
+      <c r="C9" s="454">
         <v>40100</v>
       </c>
-      <c r="D9" s="478"/>
-      <c r="E9" s="477"/>
-      <c r="F9" s="476">
+      <c r="D9" s="456"/>
+      <c r="E9" s="455"/>
+      <c r="F9" s="454">
         <v>40200</v>
       </c>
-      <c r="G9" s="477"/>
+      <c r="G9" s="455"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="476">
+      <c r="I9" s="454">
         <v>40900</v>
       </c>
-      <c r="J9" s="477"/>
+      <c r="J9" s="455"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="485"/>
-      <c r="M9" s="487"/>
+      <c r="L9" s="438"/>
+      <c r="M9" s="440"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -16019,13 +16019,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="472"/>
-      <c r="E10" s="473"/>
+      <c r="D10" s="457"/>
+      <c r="E10" s="458"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="472"/>
-      <c r="J10" s="473"/>
+      <c r="I10" s="457"/>
+      <c r="J10" s="458"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -16048,13 +16048,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="470"/>
-      <c r="E11" s="471"/>
+      <c r="D11" s="485"/>
+      <c r="E11" s="486"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="479"/>
-      <c r="J11" s="480"/>
+      <c r="I11" s="459"/>
+      <c r="J11" s="460"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -16086,13 +16086,13 @@
       </c>
       <c r="B12" s="191"/>
       <c r="C12" s="192"/>
-      <c r="D12" s="470"/>
-      <c r="E12" s="471"/>
+      <c r="D12" s="485"/>
+      <c r="E12" s="486"/>
       <c r="F12" s="192"/>
       <c r="G12" s="192"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="481"/>
-      <c r="J12" s="482"/>
+      <c r="I12" s="467"/>
+      <c r="J12" s="468"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -16121,11 +16121,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="488">
+      <c r="D13" s="446">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="489">
+      <c r="E13" s="447">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16141,11 +16141,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="488">
+      <c r="I13" s="446">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="489">
+      <c r="J13" s="447">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -16178,13 +16178,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="490"/>
-      <c r="E14" s="491"/>
+      <c r="D14" s="448"/>
+      <c r="E14" s="449"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="490"/>
-      <c r="J14" s="491"/>
+      <c r="I14" s="448"/>
+      <c r="J14" s="449"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -16217,11 +16217,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="492">
+      <c r="D15" s="450">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="493"/>
+      <c r="E15" s="451"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -16234,11 +16234,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="492">
+      <c r="I15" s="450">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="493"/>
+      <c r="J15" s="451"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -16306,22 +16306,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="445">
+      <c r="C17" s="444">
         <v>40200</v>
       </c>
-      <c r="D17" s="446"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="445">
+      <c r="D17" s="492"/>
+      <c r="E17" s="445"/>
+      <c r="F17" s="444">
         <v>40300</v>
       </c>
-      <c r="G17" s="447"/>
+      <c r="G17" s="445"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="445">
+      <c r="I17" s="444">
         <v>40600</v>
       </c>
-      <c r="J17" s="447"/>
+      <c r="J17" s="445"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -16406,23 +16406,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="436" t="s">
+      <c r="A20" s="441" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="437"/>
-      <c r="C20" s="438"/>
+      <c r="B20" s="442"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="436" t="s">
+      <c r="E20" s="441" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="438"/>
-      <c r="J20" s="436" t="s">
+      <c r="F20" s="442"/>
+      <c r="G20" s="442"/>
+      <c r="H20" s="443"/>
+      <c r="J20" s="441" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="437"/>
-      <c r="L20" s="438"/>
+      <c r="K20" s="442"/>
+      <c r="L20" s="443"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -16442,9 +16442,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="439"/>
-      <c r="F21" s="440"/>
-      <c r="G21" s="441"/>
+      <c r="E21" s="464"/>
+      <c r="F21" s="465"/>
+      <c r="G21" s="466"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -16475,9 +16475,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="439"/>
-      <c r="F22" s="440"/>
-      <c r="G22" s="441"/>
+      <c r="E22" s="464"/>
+      <c r="F22" s="465"/>
+      <c r="G22" s="466"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -16508,9 +16508,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="439"/>
-      <c r="F23" s="440"/>
-      <c r="G23" s="441"/>
+      <c r="E23" s="464"/>
+      <c r="F23" s="465"/>
+      <c r="G23" s="466"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -16549,9 +16549,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="442"/>
-      <c r="F24" s="443"/>
-      <c r="G24" s="444"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="462"/>
+      <c r="G24" s="463"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -16582,9 +16582,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="442"/>
-      <c r="F25" s="443"/>
-      <c r="G25" s="444"/>
+      <c r="E25" s="461"/>
+      <c r="F25" s="462"/>
+      <c r="G25" s="463"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -16697,12 +16697,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="436" t="s">
+      <c r="E28" s="441" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="437"/>
-      <c r="G28" s="437"/>
-      <c r="H28" s="438"/>
+      <c r="F28" s="442"/>
+      <c r="G28" s="442"/>
+      <c r="H28" s="443"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -16735,9 +16735,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="442"/>
-      <c r="F29" s="443"/>
-      <c r="G29" s="444"/>
+      <c r="E29" s="461"/>
+      <c r="F29" s="462"/>
+      <c r="G29" s="463"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -16758,9 +16758,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="442"/>
-      <c r="F30" s="443"/>
-      <c r="G30" s="444"/>
+      <c r="E30" s="461"/>
+      <c r="F30" s="462"/>
+      <c r="G30" s="463"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -16785,15 +16785,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="448" t="s">
+      <c r="A31" s="493" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="449"/>
-      <c r="C31" s="450"/>
+      <c r="B31" s="494"/>
+      <c r="C31" s="495"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="442"/>
-      <c r="F31" s="443"/>
-      <c r="G31" s="444"/>
+      <c r="E31" s="461"/>
+      <c r="F31" s="462"/>
+      <c r="G31" s="463"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -16828,9 +16828,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="442"/>
-      <c r="F32" s="443"/>
-      <c r="G32" s="444"/>
+      <c r="E32" s="461"/>
+      <c r="F32" s="462"/>
+      <c r="G32" s="463"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -16853,9 +16853,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="442"/>
-      <c r="F33" s="443"/>
-      <c r="G33" s="444"/>
+      <c r="E33" s="461"/>
+      <c r="F33" s="462"/>
+      <c r="G33" s="463"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -16864,14 +16864,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="452" t="s">
+      <c r="N33" s="490" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="452"/>
-      <c r="P33" s="452"/>
-      <c r="Q33" s="452"/>
-      <c r="R33" s="452"/>
-      <c r="S33" s="452"/>
+      <c r="O33" s="490"/>
+      <c r="P33" s="490"/>
+      <c r="Q33" s="490"/>
+      <c r="R33" s="490"/>
+      <c r="S33" s="490"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="451"/>
-      <c r="O34" s="451"/>
-      <c r="P34" s="451"/>
-      <c r="Q34" s="451"/>
-      <c r="R34" s="451"/>
+      <c r="N34" s="489"/>
+      <c r="O34" s="489"/>
+      <c r="P34" s="489"/>
+      <c r="Q34" s="489"/>
+      <c r="R34" s="489"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -16930,11 +16930,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="451"/>
-      <c r="O35" s="451"/>
-      <c r="P35" s="451"/>
-      <c r="Q35" s="451"/>
-      <c r="R35" s="451"/>
+      <c r="N35" s="489"/>
+      <c r="O35" s="489"/>
+      <c r="P35" s="489"/>
+      <c r="Q35" s="489"/>
+      <c r="R35" s="489"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -16942,12 +16942,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="436" t="s">
+      <c r="E36" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="437"/>
-      <c r="G36" s="437"/>
-      <c r="H36" s="438"/>
+      <c r="F36" s="442"/>
+      <c r="G36" s="442"/>
+      <c r="H36" s="443"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -16961,20 +16961,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="451"/>
-      <c r="O36" s="451"/>
-      <c r="P36" s="451"/>
-      <c r="Q36" s="451"/>
-      <c r="R36" s="451"/>
+      <c r="N36" s="489"/>
+      <c r="O36" s="489"/>
+      <c r="P36" s="489"/>
+      <c r="Q36" s="489"/>
+      <c r="R36" s="489"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="439"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="441"/>
+      <c r="E37" s="464"/>
+      <c r="F37" s="465"/>
+      <c r="G37" s="466"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -16989,23 +16989,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="451"/>
-      <c r="O37" s="451"/>
-      <c r="P37" s="451"/>
-      <c r="Q37" s="451"/>
-      <c r="R37" s="451"/>
+      <c r="N37" s="489"/>
+      <c r="O37" s="489"/>
+      <c r="P37" s="489"/>
+      <c r="Q37" s="489"/>
+      <c r="R37" s="489"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="453" t="s">
+      <c r="A38" s="491" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="453"/>
+      <c r="B38" s="491"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="439"/>
-      <c r="F38" s="440"/>
-      <c r="G38" s="441"/>
+      <c r="E38" s="464"/>
+      <c r="F38" s="465"/>
+      <c r="G38" s="466"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -17017,11 +17017,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="451"/>
-      <c r="O38" s="451"/>
-      <c r="P38" s="451"/>
-      <c r="Q38" s="451"/>
-      <c r="R38" s="451"/>
+      <c r="N38" s="489"/>
+      <c r="O38" s="489"/>
+      <c r="P38" s="489"/>
+      <c r="Q38" s="489"/>
+      <c r="R38" s="489"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17029,14 +17029,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="439"/>
-      <c r="F39" s="440"/>
-      <c r="G39" s="441"/>
+      <c r="E39" s="464"/>
+      <c r="F39" s="465"/>
+      <c r="G39" s="466"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -17069,9 +17069,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="439"/>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="E40" s="464"/>
+      <c r="F40" s="465"/>
+      <c r="G40" s="466"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -17102,9 +17102,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="439"/>
-      <c r="F41" s="440"/>
-      <c r="G41" s="441"/>
+      <c r="E41" s="464"/>
+      <c r="F41" s="465"/>
+      <c r="G41" s="466"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -17119,14 +17119,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="452" t="s">
+      <c r="N41" s="490" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="452"/>
-      <c r="P41" s="452"/>
-      <c r="Q41" s="452"/>
-      <c r="R41" s="452"/>
-      <c r="S41" s="452"/>
+      <c r="O41" s="490"/>
+      <c r="P41" s="490"/>
+      <c r="Q41" s="490"/>
+      <c r="R41" s="490"/>
+      <c r="S41" s="490"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -17152,11 +17152,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="451"/>
-      <c r="O42" s="451"/>
-      <c r="P42" s="451"/>
-      <c r="Q42" s="451"/>
-      <c r="R42" s="451"/>
+      <c r="N42" s="489"/>
+      <c r="O42" s="489"/>
+      <c r="P42" s="489"/>
+      <c r="Q42" s="489"/>
+      <c r="R42" s="489"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -17177,11 +17177,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="451"/>
-      <c r="O43" s="451"/>
-      <c r="P43" s="451"/>
-      <c r="Q43" s="451"/>
-      <c r="R43" s="451"/>
+      <c r="N43" s="489"/>
+      <c r="O43" s="489"/>
+      <c r="P43" s="489"/>
+      <c r="Q43" s="489"/>
+      <c r="R43" s="489"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -17205,11 +17205,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="451"/>
-      <c r="O44" s="451"/>
-      <c r="P44" s="451"/>
-      <c r="Q44" s="451"/>
-      <c r="R44" s="451"/>
+      <c r="N44" s="489"/>
+      <c r="O44" s="489"/>
+      <c r="P44" s="489"/>
+      <c r="Q44" s="489"/>
+      <c r="R44" s="489"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -17237,11 +17237,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="451"/>
-      <c r="O45" s="451"/>
-      <c r="P45" s="451"/>
-      <c r="Q45" s="451"/>
-      <c r="R45" s="451"/>
+      <c r="N45" s="489"/>
+      <c r="O45" s="489"/>
+      <c r="P45" s="489"/>
+      <c r="Q45" s="489"/>
+      <c r="R45" s="489"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -17261,11 +17261,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="451"/>
-      <c r="O46" s="451"/>
-      <c r="P46" s="451"/>
-      <c r="Q46" s="451"/>
-      <c r="R46" s="451"/>
+      <c r="N46" s="489"/>
+      <c r="O46" s="489"/>
+      <c r="P46" s="489"/>
+      <c r="Q46" s="489"/>
+      <c r="R46" s="489"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -17380,20 +17380,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="483">
+      <c r="E51" s="436">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="483"/>
-      <c r="G51" s="483"/>
-      <c r="H51" s="483"/>
-      <c r="J51" s="483">
+      <c r="F51" s="436"/>
+      <c r="G51" s="436"/>
+      <c r="H51" s="436"/>
+      <c r="J51" s="436">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="483"/>
-      <c r="L51" s="483"/>
-      <c r="M51" s="483"/>
+      <c r="K51" s="436"/>
+      <c r="L51" s="436"/>
+      <c r="M51" s="436"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18528,57 +18528,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -18595,6 +18544,57 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -18615,8 +18615,8 @@
   </sheetPr>
   <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R97" sqref="R97"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -18646,49 +18646,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="457"/>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
-      <c r="K1" s="457"/>
-      <c r="L1" s="457"/>
-      <c r="M1" s="457"/>
-      <c r="N1" s="457"/>
-      <c r="O1" s="457"/>
-      <c r="P1" s="457"/>
-      <c r="Q1" s="457"/>
-      <c r="R1" s="457"/>
-      <c r="S1" s="457"/>
+      <c r="A1" s="472"/>
+      <c r="B1" s="472"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="472"/>
+      <c r="E1" s="472"/>
+      <c r="F1" s="472"/>
+      <c r="G1" s="472"/>
+      <c r="H1" s="472"/>
+      <c r="I1" s="472"/>
+      <c r="J1" s="472"/>
+      <c r="K1" s="472"/>
+      <c r="L1" s="472"/>
+      <c r="M1" s="472"/>
+      <c r="N1" s="472"/>
+      <c r="O1" s="472"/>
+      <c r="P1" s="472"/>
+      <c r="Q1" s="472"/>
+      <c r="R1" s="472"/>
+      <c r="S1" s="472"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="458" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="458"/>
-      <c r="O2" s="459"/>
-      <c r="P2" s="460" t="s">
+      <c r="A2" s="473" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="473"/>
+      <c r="F2" s="473"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="473"/>
+      <c r="I2" s="473"/>
+      <c r="J2" s="473"/>
+      <c r="K2" s="473"/>
+      <c r="L2" s="473"/>
+      <c r="M2" s="473"/>
+      <c r="N2" s="473"/>
+      <c r="O2" s="474"/>
+      <c r="P2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="461"/>
-      <c r="R2" s="462"/>
+      <c r="Q2" s="476"/>
+      <c r="R2" s="477"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18699,14 +18699,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="463" t="s">
+      <c r="H3" s="478" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="464"/>
-      <c r="K3" s="464"/>
-      <c r="L3" s="464"/>
-      <c r="M3" s="464"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
+      <c r="M3" s="479"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -18730,12 +18730,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="463"/>
+      <c r="H4" s="478"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="465"/>
-      <c r="K4" s="465"/>
-      <c r="L4" s="465"/>
-      <c r="M4" s="465"/>
+      <c r="J4" s="480"/>
+      <c r="K4" s="480"/>
+      <c r="L4" s="480"/>
+      <c r="M4" s="480"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -18811,29 +18811,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="466" t="s">
+      <c r="C7" s="481" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="469"/>
-      <c r="E7" s="467"/>
-      <c r="F7" s="466" t="s">
+      <c r="D7" s="484"/>
+      <c r="E7" s="482"/>
+      <c r="F7" s="481" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="467"/>
+      <c r="G7" s="482"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="466" t="s">
+      <c r="I7" s="481" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="467"/>
+      <c r="J7" s="482"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="466" t="s">
+      <c r="L7" s="481" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="468"/>
+      <c r="M7" s="483"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -18853,10 +18853,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="474" t="s">
+      <c r="D8" s="487" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="475"/>
+      <c r="E8" s="488"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -18866,15 +18866,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="494"/>
-      <c r="J8" s="495"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="453"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="484" t="s">
+      <c r="L8" s="437" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="486" t="s">
+      <c r="M8" s="439" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -18897,27 +18897,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="476">
+      <c r="C9" s="454">
         <v>40100</v>
       </c>
-      <c r="D9" s="478"/>
-      <c r="E9" s="477"/>
-      <c r="F9" s="476">
+      <c r="D9" s="456"/>
+      <c r="E9" s="455"/>
+      <c r="F9" s="454">
         <v>40200</v>
       </c>
-      <c r="G9" s="477"/>
+      <c r="G9" s="455"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="476">
+      <c r="I9" s="454">
         <v>40900</v>
       </c>
-      <c r="J9" s="477"/>
+      <c r="J9" s="455"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="485"/>
-      <c r="M9" s="487"/>
+      <c r="L9" s="438"/>
+      <c r="M9" s="440"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -18937,13 +18937,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="472"/>
-      <c r="E10" s="473"/>
+      <c r="D10" s="457"/>
+      <c r="E10" s="458"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="472"/>
-      <c r="J10" s="473"/>
+      <c r="I10" s="457"/>
+      <c r="J10" s="458"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -18966,13 +18966,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="470"/>
-      <c r="E11" s="471"/>
+      <c r="D11" s="485"/>
+      <c r="E11" s="486"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="479"/>
-      <c r="J11" s="480"/>
+      <c r="I11" s="459"/>
+      <c r="J11" s="460"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -19004,13 +19004,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="481"/>
-      <c r="E12" s="482"/>
+      <c r="D12" s="467"/>
+      <c r="E12" s="468"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="481"/>
-      <c r="J12" s="482"/>
+      <c r="I12" s="467"/>
+      <c r="J12" s="468"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -19039,11 +19039,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="488">
+      <c r="D13" s="446">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="489">
+      <c r="E13" s="447">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19059,11 +19059,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="488">
+      <c r="I13" s="446">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="489">
+      <c r="J13" s="447">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -19096,15 +19096,15 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="490"/>
-      <c r="E14" s="491"/>
+      <c r="D14" s="448"/>
+      <c r="E14" s="449"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15">
         <v>0</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="490"/>
-      <c r="J14" s="491"/>
+      <c r="I14" s="448"/>
+      <c r="J14" s="449"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -19134,11 +19134,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="492">
+      <c r="D15" s="450">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="493"/>
+      <c r="E15" s="451"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -19151,11 +19151,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="492">
+      <c r="I15" s="450">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="493"/>
+      <c r="J15" s="451"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -19223,22 +19223,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="445">
+      <c r="C17" s="444">
         <v>40200</v>
       </c>
-      <c r="D17" s="446"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="445">
+      <c r="D17" s="492"/>
+      <c r="E17" s="445"/>
+      <c r="F17" s="444">
         <v>40300</v>
       </c>
-      <c r="G17" s="447"/>
+      <c r="G17" s="445"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="445">
+      <c r="I17" s="444">
         <v>40600</v>
       </c>
-      <c r="J17" s="447"/>
+      <c r="J17" s="445"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -19323,23 +19323,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="436" t="s">
+      <c r="A20" s="441" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="437"/>
-      <c r="C20" s="438"/>
+      <c r="B20" s="442"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="436" t="s">
+      <c r="E20" s="441" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="438"/>
-      <c r="J20" s="436" t="s">
+      <c r="F20" s="442"/>
+      <c r="G20" s="442"/>
+      <c r="H20" s="443"/>
+      <c r="J20" s="441" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="437"/>
-      <c r="L20" s="438"/>
+      <c r="K20" s="442"/>
+      <c r="L20" s="443"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -19359,9 +19359,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="439"/>
-      <c r="F21" s="440"/>
-      <c r="G21" s="441"/>
+      <c r="E21" s="464"/>
+      <c r="F21" s="465"/>
+      <c r="G21" s="466"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -19392,9 +19392,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="439"/>
-      <c r="F22" s="440"/>
-      <c r="G22" s="441"/>
+      <c r="E22" s="464"/>
+      <c r="F22" s="465"/>
+      <c r="G22" s="466"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -19425,9 +19425,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="439"/>
-      <c r="F23" s="440"/>
-      <c r="G23" s="441"/>
+      <c r="E23" s="464"/>
+      <c r="F23" s="465"/>
+      <c r="G23" s="466"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -19466,9 +19466,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="442"/>
-      <c r="F24" s="443"/>
-      <c r="G24" s="444"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="462"/>
+      <c r="G24" s="463"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -19499,9 +19499,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="442"/>
-      <c r="F25" s="443"/>
-      <c r="G25" s="444"/>
+      <c r="E25" s="461"/>
+      <c r="F25" s="462"/>
+      <c r="G25" s="463"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -19615,12 +19615,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="436" t="s">
+      <c r="E28" s="441" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="437"/>
-      <c r="G28" s="437"/>
-      <c r="H28" s="438"/>
+      <c r="F28" s="442"/>
+      <c r="G28" s="442"/>
+      <c r="H28" s="443"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -19653,9 +19653,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="442"/>
-      <c r="F29" s="443"/>
-      <c r="G29" s="444"/>
+      <c r="E29" s="461"/>
+      <c r="F29" s="462"/>
+      <c r="G29" s="463"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -19676,9 +19676,9 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="442"/>
-      <c r="F30" s="443"/>
-      <c r="G30" s="444"/>
+      <c r="E30" s="461"/>
+      <c r="F30" s="462"/>
+      <c r="G30" s="463"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -19703,15 +19703,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="448" t="s">
+      <c r="A31" s="493" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="449"/>
-      <c r="C31" s="450"/>
+      <c r="B31" s="494"/>
+      <c r="C31" s="495"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="442"/>
-      <c r="F31" s="443"/>
-      <c r="G31" s="444"/>
+      <c r="E31" s="461"/>
+      <c r="F31" s="462"/>
+      <c r="G31" s="463"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -19746,9 +19746,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="442"/>
-      <c r="F32" s="443"/>
-      <c r="G32" s="444"/>
+      <c r="E32" s="461"/>
+      <c r="F32" s="462"/>
+      <c r="G32" s="463"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -19771,9 +19771,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="442"/>
-      <c r="F33" s="443"/>
-      <c r="G33" s="444"/>
+      <c r="E33" s="461"/>
+      <c r="F33" s="462"/>
+      <c r="G33" s="463"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -19782,14 +19782,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="452" t="s">
+      <c r="N33" s="490" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="452"/>
-      <c r="P33" s="452"/>
-      <c r="Q33" s="452"/>
-      <c r="R33" s="452"/>
-      <c r="S33" s="452"/>
+      <c r="O33" s="490"/>
+      <c r="P33" s="490"/>
+      <c r="Q33" s="490"/>
+      <c r="R33" s="490"/>
+      <c r="S33" s="490"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -19817,11 +19817,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="451"/>
-      <c r="O34" s="451"/>
-      <c r="P34" s="451"/>
-      <c r="Q34" s="451"/>
-      <c r="R34" s="451"/>
+      <c r="N34" s="489"/>
+      <c r="O34" s="489"/>
+      <c r="P34" s="489"/>
+      <c r="Q34" s="489"/>
+      <c r="R34" s="489"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -19848,11 +19848,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="451"/>
-      <c r="O35" s="451"/>
-      <c r="P35" s="451"/>
-      <c r="Q35" s="451"/>
-      <c r="R35" s="451"/>
+      <c r="N35" s="489"/>
+      <c r="O35" s="489"/>
+      <c r="P35" s="489"/>
+      <c r="Q35" s="489"/>
+      <c r="R35" s="489"/>
       <c r="S35" s="76"/>
       <c r="W35" s="174"/>
     </row>
@@ -19861,12 +19861,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="436" t="s">
+      <c r="E36" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="437"/>
-      <c r="G36" s="437"/>
-      <c r="H36" s="438"/>
+      <c r="F36" s="442"/>
+      <c r="G36" s="442"/>
+      <c r="H36" s="443"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -19880,20 +19880,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="451"/>
-      <c r="O36" s="451"/>
-      <c r="P36" s="451"/>
-      <c r="Q36" s="451"/>
-      <c r="R36" s="451"/>
+      <c r="N36" s="489"/>
+      <c r="O36" s="489"/>
+      <c r="P36" s="489"/>
+      <c r="Q36" s="489"/>
+      <c r="R36" s="489"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="439"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="441"/>
+      <c r="E37" s="464"/>
+      <c r="F37" s="465"/>
+      <c r="G37" s="466"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -19908,23 +19908,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="451"/>
-      <c r="O37" s="451"/>
-      <c r="P37" s="451"/>
-      <c r="Q37" s="451"/>
-      <c r="R37" s="451"/>
+      <c r="N37" s="489"/>
+      <c r="O37" s="489"/>
+      <c r="P37" s="489"/>
+      <c r="Q37" s="489"/>
+      <c r="R37" s="489"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="453" t="s">
+      <c r="A38" s="491" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="453"/>
+      <c r="B38" s="491"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="439"/>
-      <c r="F38" s="440"/>
-      <c r="G38" s="441"/>
+      <c r="E38" s="464"/>
+      <c r="F38" s="465"/>
+      <c r="G38" s="466"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -19936,11 +19936,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="451"/>
-      <c r="O38" s="451"/>
-      <c r="P38" s="451"/>
-      <c r="Q38" s="451"/>
-      <c r="R38" s="451"/>
+      <c r="N38" s="489"/>
+      <c r="O38" s="489"/>
+      <c r="P38" s="489"/>
+      <c r="Q38" s="489"/>
+      <c r="R38" s="489"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19948,14 +19948,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="439"/>
-      <c r="F39" s="440"/>
-      <c r="G39" s="441"/>
+      <c r="E39" s="464"/>
+      <c r="F39" s="465"/>
+      <c r="G39" s="466"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -19988,9 +19988,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="439"/>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="E40" s="464"/>
+      <c r="F40" s="465"/>
+      <c r="G40" s="466"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -20021,9 +20021,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="439"/>
-      <c r="F41" s="440"/>
-      <c r="G41" s="441"/>
+      <c r="E41" s="464"/>
+      <c r="F41" s="465"/>
+      <c r="G41" s="466"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -20038,14 +20038,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="452" t="s">
+      <c r="N41" s="490" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="452"/>
-      <c r="P41" s="452"/>
-      <c r="Q41" s="452"/>
-      <c r="R41" s="452"/>
-      <c r="S41" s="452"/>
+      <c r="O41" s="490"/>
+      <c r="P41" s="490"/>
+      <c r="Q41" s="490"/>
+      <c r="R41" s="490"/>
+      <c r="S41" s="490"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -20071,11 +20071,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="451"/>
-      <c r="O42" s="451"/>
-      <c r="P42" s="451"/>
-      <c r="Q42" s="451"/>
-      <c r="R42" s="451"/>
+      <c r="N42" s="489"/>
+      <c r="O42" s="489"/>
+      <c r="P42" s="489"/>
+      <c r="Q42" s="489"/>
+      <c r="R42" s="489"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -20093,11 +20093,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="451"/>
-      <c r="O43" s="451"/>
-      <c r="P43" s="451"/>
-      <c r="Q43" s="451"/>
-      <c r="R43" s="451"/>
+      <c r="N43" s="489"/>
+      <c r="O43" s="489"/>
+      <c r="P43" s="489"/>
+      <c r="Q43" s="489"/>
+      <c r="R43" s="489"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -20121,11 +20121,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="451"/>
-      <c r="O44" s="451"/>
-      <c r="P44" s="451"/>
-      <c r="Q44" s="451"/>
-      <c r="R44" s="451"/>
+      <c r="N44" s="489"/>
+      <c r="O44" s="489"/>
+      <c r="P44" s="489"/>
+      <c r="Q44" s="489"/>
+      <c r="R44" s="489"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -20152,11 +20152,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="451"/>
-      <c r="O45" s="451"/>
-      <c r="P45" s="451"/>
-      <c r="Q45" s="451"/>
-      <c r="R45" s="451"/>
+      <c r="N45" s="489"/>
+      <c r="O45" s="489"/>
+      <c r="P45" s="489"/>
+      <c r="Q45" s="489"/>
+      <c r="R45" s="489"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -20176,11 +20176,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="451"/>
-      <c r="O46" s="451"/>
-      <c r="P46" s="451"/>
-      <c r="Q46" s="451"/>
-      <c r="R46" s="451"/>
+      <c r="N46" s="489"/>
+      <c r="O46" s="489"/>
+      <c r="P46" s="489"/>
+      <c r="Q46" s="489"/>
+      <c r="R46" s="489"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -20292,21 +20292,21 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="E51" s="483">
+      <c r="E51" s="436">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="483"/>
-      <c r="G51" s="483"/>
-      <c r="H51" s="483"/>
+      <c r="F51" s="436"/>
+      <c r="G51" s="436"/>
+      <c r="H51" s="436"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="483">
+      <c r="J51" s="436">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="483"/>
-      <c r="L51" s="483"/>
-      <c r="M51" s="483"/>
+      <c r="K51" s="436"/>
+      <c r="L51" s="436"/>
+      <c r="M51" s="436"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -21501,57 +21501,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -21568,6 +21517,57 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="68" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -21586,8 +21586,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -21616,49 +21616,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="457"/>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
-      <c r="K1" s="457"/>
-      <c r="L1" s="457"/>
-      <c r="M1" s="457"/>
-      <c r="N1" s="457"/>
-      <c r="O1" s="457"/>
-      <c r="P1" s="457"/>
-      <c r="Q1" s="457"/>
-      <c r="R1" s="457"/>
-      <c r="S1" s="457"/>
+      <c r="A1" s="472"/>
+      <c r="B1" s="472"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="472"/>
+      <c r="E1" s="472"/>
+      <c r="F1" s="472"/>
+      <c r="G1" s="472"/>
+      <c r="H1" s="472"/>
+      <c r="I1" s="472"/>
+      <c r="J1" s="472"/>
+      <c r="K1" s="472"/>
+      <c r="L1" s="472"/>
+      <c r="M1" s="472"/>
+      <c r="N1" s="472"/>
+      <c r="O1" s="472"/>
+      <c r="P1" s="472"/>
+      <c r="Q1" s="472"/>
+      <c r="R1" s="472"/>
+      <c r="S1" s="472"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="458" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="458"/>
-      <c r="O2" s="459"/>
-      <c r="P2" s="460" t="s">
+      <c r="A2" s="473" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="473"/>
+      <c r="F2" s="473"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="473"/>
+      <c r="I2" s="473"/>
+      <c r="J2" s="473"/>
+      <c r="K2" s="473"/>
+      <c r="L2" s="473"/>
+      <c r="M2" s="473"/>
+      <c r="N2" s="473"/>
+      <c r="O2" s="474"/>
+      <c r="P2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="461"/>
-      <c r="R2" s="462"/>
+      <c r="Q2" s="476"/>
+      <c r="R2" s="477"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21669,14 +21669,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="463" t="s">
+      <c r="H3" s="478" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="464"/>
-      <c r="K3" s="464"/>
-      <c r="L3" s="464"/>
-      <c r="M3" s="464"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
+      <c r="M3" s="479"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -21700,12 +21700,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="463"/>
+      <c r="H4" s="478"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="465"/>
-      <c r="K4" s="465"/>
-      <c r="L4" s="465"/>
-      <c r="M4" s="465"/>
+      <c r="J4" s="480"/>
+      <c r="K4" s="480"/>
+      <c r="L4" s="480"/>
+      <c r="M4" s="480"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -21781,29 +21781,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="466" t="s">
+      <c r="C7" s="481" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="469"/>
-      <c r="E7" s="467"/>
-      <c r="F7" s="466" t="s">
+      <c r="D7" s="484"/>
+      <c r="E7" s="482"/>
+      <c r="F7" s="481" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="467"/>
+      <c r="G7" s="482"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="466" t="s">
+      <c r="I7" s="481" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="467"/>
+      <c r="J7" s="482"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="466" t="s">
+      <c r="L7" s="481" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="468"/>
+      <c r="M7" s="483"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -21823,10 +21823,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="474" t="s">
+      <c r="D8" s="487" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="475"/>
+      <c r="E8" s="488"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -21836,15 +21836,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="494"/>
-      <c r="J8" s="495"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="453"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="484" t="s">
+      <c r="L8" s="437" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="486" t="s">
+      <c r="M8" s="439" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -21867,27 +21867,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="476">
+      <c r="C9" s="454">
         <v>40100</v>
       </c>
-      <c r="D9" s="478"/>
-      <c r="E9" s="477"/>
-      <c r="F9" s="476">
+      <c r="D9" s="456"/>
+      <c r="E9" s="455"/>
+      <c r="F9" s="454">
         <v>40200</v>
       </c>
-      <c r="G9" s="477"/>
+      <c r="G9" s="455"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="476">
+      <c r="I9" s="454">
         <v>40900</v>
       </c>
-      <c r="J9" s="477"/>
+      <c r="J9" s="455"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="485"/>
-      <c r="M9" s="487"/>
+      <c r="L9" s="438"/>
+      <c r="M9" s="440"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -21907,13 +21907,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="472"/>
-      <c r="E10" s="473"/>
+      <c r="D10" s="457"/>
+      <c r="E10" s="458"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="472"/>
-      <c r="J10" s="473"/>
+      <c r="I10" s="457"/>
+      <c r="J10" s="458"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -21936,13 +21936,13 @@
       </c>
       <c r="B11" s="286"/>
       <c r="C11" s="285"/>
-      <c r="D11" s="481"/>
-      <c r="E11" s="482"/>
+      <c r="D11" s="467"/>
+      <c r="E11" s="468"/>
       <c r="F11" s="285"/>
       <c r="G11" s="285"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="479"/>
-      <c r="J11" s="480"/>
+      <c r="I11" s="459"/>
+      <c r="J11" s="460"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -21974,13 +21974,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="481"/>
-      <c r="E12" s="482"/>
+      <c r="D12" s="467"/>
+      <c r="E12" s="468"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="481"/>
-      <c r="J12" s="482"/>
+      <c r="I12" s="467"/>
+      <c r="J12" s="468"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -22009,11 +22009,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="488">
+      <c r="D13" s="446">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="489">
+      <c r="E13" s="447">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22029,11 +22029,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="488">
+      <c r="I13" s="446">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="489">
+      <c r="J13" s="447">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -22066,13 +22066,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="490"/>
-      <c r="E14" s="491"/>
+      <c r="D14" s="448"/>
+      <c r="E14" s="449"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="490"/>
-      <c r="J14" s="491"/>
+      <c r="I14" s="448"/>
+      <c r="J14" s="449"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -22102,11 +22102,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="492">
+      <c r="D15" s="450">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="493"/>
+      <c r="E15" s="451"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -22119,11 +22119,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="492">
+      <c r="I15" s="450">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="493"/>
+      <c r="J15" s="451"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -22191,22 +22191,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="445">
+      <c r="C17" s="444">
         <v>40200</v>
       </c>
-      <c r="D17" s="446"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="445">
+      <c r="D17" s="492"/>
+      <c r="E17" s="445"/>
+      <c r="F17" s="444">
         <v>40300</v>
       </c>
-      <c r="G17" s="447"/>
+      <c r="G17" s="445"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="445">
+      <c r="I17" s="444">
         <v>40600</v>
       </c>
-      <c r="J17" s="447"/>
+      <c r="J17" s="445"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -22291,23 +22291,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="436" t="s">
+      <c r="A20" s="441" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="437"/>
-      <c r="C20" s="438"/>
+      <c r="B20" s="442"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="436" t="s">
+      <c r="E20" s="441" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="438"/>
-      <c r="J20" s="436" t="s">
+      <c r="F20" s="442"/>
+      <c r="G20" s="442"/>
+      <c r="H20" s="443"/>
+      <c r="J20" s="441" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="437"/>
-      <c r="L20" s="438"/>
+      <c r="K20" s="442"/>
+      <c r="L20" s="443"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -22327,9 +22327,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="439"/>
-      <c r="F21" s="440"/>
-      <c r="G21" s="441"/>
+      <c r="E21" s="464"/>
+      <c r="F21" s="465"/>
+      <c r="G21" s="466"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -22360,9 +22360,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="439"/>
-      <c r="F22" s="440"/>
-      <c r="G22" s="441"/>
+      <c r="E22" s="464"/>
+      <c r="F22" s="465"/>
+      <c r="G22" s="466"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -22393,9 +22393,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="439"/>
-      <c r="F23" s="440"/>
-      <c r="G23" s="441"/>
+      <c r="E23" s="464"/>
+      <c r="F23" s="465"/>
+      <c r="G23" s="466"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -22434,9 +22434,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="442"/>
-      <c r="F24" s="443"/>
-      <c r="G24" s="444"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="462"/>
+      <c r="G24" s="463"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -22467,9 +22467,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="442"/>
-      <c r="F25" s="443"/>
-      <c r="G25" s="444"/>
+      <c r="E25" s="461"/>
+      <c r="F25" s="462"/>
+      <c r="G25" s="463"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -22582,12 +22582,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="436" t="s">
+      <c r="E28" s="441" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="437"/>
-      <c r="G28" s="437"/>
-      <c r="H28" s="438"/>
+      <c r="F28" s="442"/>
+      <c r="G28" s="442"/>
+      <c r="H28" s="443"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -22620,9 +22620,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="442"/>
-      <c r="F29" s="443"/>
-      <c r="G29" s="444"/>
+      <c r="E29" s="461"/>
+      <c r="F29" s="462"/>
+      <c r="G29" s="463"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -22643,9 +22643,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="442"/>
-      <c r="F30" s="443"/>
-      <c r="G30" s="444"/>
+      <c r="E30" s="461"/>
+      <c r="F30" s="462"/>
+      <c r="G30" s="463"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -22670,15 +22670,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="448" t="s">
+      <c r="A31" s="493" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="449"/>
-      <c r="C31" s="450"/>
+      <c r="B31" s="494"/>
+      <c r="C31" s="495"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="442"/>
-      <c r="F31" s="443"/>
-      <c r="G31" s="444"/>
+      <c r="E31" s="461"/>
+      <c r="F31" s="462"/>
+      <c r="G31" s="463"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -22713,9 +22713,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="442"/>
-      <c r="F32" s="443"/>
-      <c r="G32" s="444"/>
+      <c r="E32" s="461"/>
+      <c r="F32" s="462"/>
+      <c r="G32" s="463"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -22738,9 +22738,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="442"/>
-      <c r="F33" s="443"/>
-      <c r="G33" s="444"/>
+      <c r="E33" s="461"/>
+      <c r="F33" s="462"/>
+      <c r="G33" s="463"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -22749,14 +22749,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="452" t="s">
+      <c r="N33" s="490" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="452"/>
-      <c r="P33" s="452"/>
-      <c r="Q33" s="452"/>
-      <c r="R33" s="452"/>
-      <c r="S33" s="452"/>
+      <c r="O33" s="490"/>
+      <c r="P33" s="490"/>
+      <c r="Q33" s="490"/>
+      <c r="R33" s="490"/>
+      <c r="S33" s="490"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -22815,11 +22815,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="451"/>
-      <c r="O35" s="451"/>
-      <c r="P35" s="451"/>
-      <c r="Q35" s="451"/>
-      <c r="R35" s="451"/>
+      <c r="N35" s="489"/>
+      <c r="O35" s="489"/>
+      <c r="P35" s="489"/>
+      <c r="Q35" s="489"/>
+      <c r="R35" s="489"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -22827,12 +22827,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="436" t="s">
+      <c r="E36" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="437"/>
-      <c r="G36" s="437"/>
-      <c r="H36" s="438"/>
+      <c r="F36" s="442"/>
+      <c r="G36" s="442"/>
+      <c r="H36" s="443"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -22846,20 +22846,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="451"/>
-      <c r="O36" s="451"/>
-      <c r="P36" s="451"/>
-      <c r="Q36" s="451"/>
-      <c r="R36" s="451"/>
+      <c r="N36" s="489"/>
+      <c r="O36" s="489"/>
+      <c r="P36" s="489"/>
+      <c r="Q36" s="489"/>
+      <c r="R36" s="489"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="439"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="441"/>
+      <c r="E37" s="464"/>
+      <c r="F37" s="465"/>
+      <c r="G37" s="466"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -22874,23 +22874,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="451"/>
-      <c r="O37" s="451"/>
-      <c r="P37" s="451"/>
-      <c r="Q37" s="451"/>
-      <c r="R37" s="451"/>
+      <c r="N37" s="489"/>
+      <c r="O37" s="489"/>
+      <c r="P37" s="489"/>
+      <c r="Q37" s="489"/>
+      <c r="R37" s="489"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="453" t="s">
+      <c r="A38" s="491" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="453"/>
+      <c r="B38" s="491"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="439"/>
-      <c r="F38" s="440"/>
-      <c r="G38" s="441"/>
+      <c r="E38" s="464"/>
+      <c r="F38" s="465"/>
+      <c r="G38" s="466"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -22902,11 +22902,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="451"/>
-      <c r="O38" s="451"/>
-      <c r="P38" s="451"/>
-      <c r="Q38" s="451"/>
-      <c r="R38" s="451"/>
+      <c r="N38" s="489"/>
+      <c r="O38" s="489"/>
+      <c r="P38" s="489"/>
+      <c r="Q38" s="489"/>
+      <c r="R38" s="489"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -22914,14 +22914,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="439"/>
-      <c r="F39" s="440"/>
-      <c r="G39" s="441"/>
+      <c r="E39" s="464"/>
+      <c r="F39" s="465"/>
+      <c r="G39" s="466"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -22954,9 +22954,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="439"/>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="E40" s="464"/>
+      <c r="F40" s="465"/>
+      <c r="G40" s="466"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -22987,9 +22987,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="439"/>
-      <c r="F41" s="440"/>
-      <c r="G41" s="441"/>
+      <c r="E41" s="464"/>
+      <c r="F41" s="465"/>
+      <c r="G41" s="466"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -23004,14 +23004,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="452" t="s">
+      <c r="N41" s="490" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="452"/>
-      <c r="P41" s="452"/>
-      <c r="Q41" s="452"/>
-      <c r="R41" s="452"/>
-      <c r="S41" s="452"/>
+      <c r="O41" s="490"/>
+      <c r="P41" s="490"/>
+      <c r="Q41" s="490"/>
+      <c r="R41" s="490"/>
+      <c r="S41" s="490"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -23037,11 +23037,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="451"/>
-      <c r="O42" s="451"/>
-      <c r="P42" s="451"/>
-      <c r="Q42" s="451"/>
-      <c r="R42" s="451"/>
+      <c r="N42" s="489"/>
+      <c r="O42" s="489"/>
+      <c r="P42" s="489"/>
+      <c r="Q42" s="489"/>
+      <c r="R42" s="489"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -23061,11 +23061,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="451"/>
-      <c r="O43" s="451"/>
-      <c r="P43" s="451"/>
-      <c r="Q43" s="451"/>
-      <c r="R43" s="451"/>
+      <c r="N43" s="489"/>
+      <c r="O43" s="489"/>
+      <c r="P43" s="489"/>
+      <c r="Q43" s="489"/>
+      <c r="R43" s="489"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -23089,11 +23089,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="451"/>
-      <c r="O44" s="451"/>
-      <c r="P44" s="451"/>
-      <c r="Q44" s="451"/>
-      <c r="R44" s="451"/>
+      <c r="N44" s="489"/>
+      <c r="O44" s="489"/>
+      <c r="P44" s="489"/>
+      <c r="Q44" s="489"/>
+      <c r="R44" s="489"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -23120,11 +23120,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="451"/>
-      <c r="O45" s="451"/>
-      <c r="P45" s="451"/>
-      <c r="Q45" s="451"/>
-      <c r="R45" s="451"/>
+      <c r="N45" s="489"/>
+      <c r="O45" s="489"/>
+      <c r="P45" s="489"/>
+      <c r="Q45" s="489"/>
+      <c r="R45" s="489"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -23144,11 +23144,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="451"/>
-      <c r="O46" s="451"/>
-      <c r="P46" s="451"/>
-      <c r="Q46" s="451"/>
-      <c r="R46" s="451"/>
+      <c r="N46" s="489"/>
+      <c r="O46" s="489"/>
+      <c r="P46" s="489"/>
+      <c r="Q46" s="489"/>
+      <c r="R46" s="489"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -23261,21 +23261,21 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="483">
+      <c r="E51" s="436">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="483"/>
-      <c r="G51" s="483"/>
-      <c r="H51" s="483"/>
+      <c r="F51" s="436"/>
+      <c r="G51" s="436"/>
+      <c r="H51" s="436"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="483">
+      <c r="J51" s="436">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="483"/>
-      <c r="L51" s="483"/>
-      <c r="M51" s="483"/>
+      <c r="K51" s="436"/>
+      <c r="L51" s="436"/>
+      <c r="M51" s="436"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -24463,57 +24463,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -24530,6 +24479,57 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -24549,7 +24549,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
